--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_23_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2411175.211440003</v>
+        <v>-2412779.629366335</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1370,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>237.48457607362</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8947259232954</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>279.0877300443238</v>
+        <v>279.0877300443237</v>
       </c>
       <c r="G11" t="n">
-        <v>181.9734610969887</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>17.65528330212894</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>41.96790228277408</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.3341395078953</v>
       </c>
       <c r="V11" t="n">
-        <v>199.9639427727473</v>
+        <v>199.9639427727472</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>221.4526530200253</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.9427849810813</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.449622958666</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.74486795247974</v>
+        <v>147.5533823566209</v>
       </c>
       <c r="C12" t="n">
-        <v>44.92018329092814</v>
+        <v>44.92018329092802</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>19.65674986725104</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>29.85676475801323</v>
       </c>
       <c r="F12" t="n">
-        <v>17.28089669599628</v>
+        <v>17.28089669599616</v>
       </c>
       <c r="G12" t="n">
-        <v>8.062435227577421</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H12" t="n">
         <v>97.81846504080859</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>16.16737725307234</v>
+        <v>16.16737725307222</v>
       </c>
       <c r="T12" t="n">
-        <v>66.35951750204929</v>
+        <v>66.35951750204917</v>
       </c>
       <c r="U12" t="n">
-        <v>98.05485807843948</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V12" t="n">
-        <v>105.0122714520377</v>
+        <v>105.0122714520376</v>
       </c>
       <c r="W12" t="n">
-        <v>179.7181290817994</v>
+        <v>123.9066674635319</v>
       </c>
       <c r="X12" t="n">
-        <v>77.98466950608987</v>
+        <v>77.98466950608976</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.89438007991676</v>
+        <v>77.89438007991664</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.04366448454969</v>
+        <v>52.04366448454958</v>
       </c>
       <c r="C13" t="n">
-        <v>39.45850540124023</v>
+        <v>39.45850540124012</v>
       </c>
       <c r="D13" t="n">
-        <v>20.82715732082475</v>
+        <v>20.82715732082464</v>
       </c>
       <c r="E13" t="n">
-        <v>18.64564694918157</v>
+        <v>18.64564694918145</v>
       </c>
       <c r="F13" t="n">
-        <v>17.63273232554364</v>
+        <v>17.63273232554353</v>
       </c>
       <c r="G13" t="n">
-        <v>38.95117859219398</v>
+        <v>38.95117859219386</v>
       </c>
       <c r="H13" t="n">
-        <v>23.31201683403486</v>
+        <v>23.31201683403474</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.41831073015236</v>
+        <v>74.41831073015224</v>
       </c>
       <c r="T13" t="n">
-        <v>94.8100193456914</v>
+        <v>94.81001934569129</v>
       </c>
       <c r="U13" t="n">
-        <v>158.4624508371645</v>
+        <v>158.4624508371644</v>
       </c>
       <c r="V13" t="n">
-        <v>124.3493276264404</v>
+        <v>124.3493276264403</v>
       </c>
       <c r="W13" t="n">
-        <v>158.7346826392034</v>
+        <v>158.7346826392033</v>
       </c>
       <c r="X13" t="n">
-        <v>97.92133969164955</v>
+        <v>97.92133969164944</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.79633765470719</v>
+        <v>90.79633765470707</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>143.3979532080068</v>
+        <v>237.4845760736198</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>254.1420543748741</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>279.0877300443237</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>183.1136930274268</v>
+        <v>183.1136930274267</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>17.65528330212894</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>83.09443458014333</v>
       </c>
       <c r="U14" t="n">
         <v>123.3341395078953</v>
       </c>
       <c r="V14" t="n">
-        <v>199.9639427727473</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>221.4526530200254</v>
+        <v>221.4526530200253</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.631549314078</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.4496229586659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.74486795247971</v>
+        <v>38.74486795247962</v>
       </c>
       <c r="C15" t="n">
-        <v>44.92018329092811</v>
+        <v>44.92018329092802</v>
       </c>
       <c r="D15" t="n">
-        <v>19.65674986725112</v>
+        <v>19.65674986725104</v>
       </c>
       <c r="E15" t="n">
-        <v>29.85676475801331</v>
+        <v>29.85676475801323</v>
       </c>
       <c r="F15" t="n">
-        <v>17.28089669599625</v>
+        <v>77.96271079411996</v>
       </c>
       <c r="G15" t="n">
-        <v>8.062435227577392</v>
+        <v>8.062435227577307</v>
       </c>
       <c r="H15" t="n">
-        <v>78.83866374756107</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>16.16737725307231</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T15" t="n">
-        <v>66.35951750204926</v>
+        <v>66.35951750204917</v>
       </c>
       <c r="U15" t="n">
-        <v>98.05485807843945</v>
+        <v>98.05485807843937</v>
       </c>
       <c r="V15" t="n">
         <v>105.0122714520376</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>123.9066674635319</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>77.98466950608976</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.04366448454967</v>
+        <v>52.04366448454958</v>
       </c>
       <c r="C16" t="n">
-        <v>39.4585054012402</v>
+        <v>39.45850540124012</v>
       </c>
       <c r="D16" t="n">
-        <v>20.82715732082472</v>
+        <v>20.82715732082464</v>
       </c>
       <c r="E16" t="n">
-        <v>18.64564694918154</v>
+        <v>18.64564694918145</v>
       </c>
       <c r="F16" t="n">
-        <v>17.63273232554361</v>
+        <v>17.63273232554353</v>
       </c>
       <c r="G16" t="n">
-        <v>38.95117859219395</v>
+        <v>38.95117859219386</v>
       </c>
       <c r="H16" t="n">
-        <v>23.31201683403483</v>
+        <v>23.31201683403474</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.41831073015233</v>
+        <v>74.41831073015224</v>
       </c>
       <c r="T16" t="n">
-        <v>94.81001934569137</v>
+        <v>94.81001934569129</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4624508371645</v>
+        <v>158.4624508371644</v>
       </c>
       <c r="V16" t="n">
-        <v>124.3493276264404</v>
+        <v>124.3493276264403</v>
       </c>
       <c r="W16" t="n">
-        <v>158.7346826392034</v>
+        <v>158.7346826392033</v>
       </c>
       <c r="X16" t="n">
-        <v>97.92133969164952</v>
+        <v>97.92133969164944</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.79633765470716</v>
+        <v>90.79633765470707</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>122.3444227139336</v>
       </c>
       <c r="D17" t="n">
-        <v>111.754572563609</v>
+        <v>111.7545725636091</v>
       </c>
       <c r="E17" t="n">
         <v>139.0019010151878</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1932,16 +1932,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>150.8691945682702</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>191.021513138196</v>
+        <v>8.766514103845651</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1143838566532</v>
+        <v>43.32229747747818</v>
       </c>
       <c r="V19" t="n">
         <v>9.209174266754047</v>
       </c>
       <c r="W19" t="n">
-        <v>43.59452927951705</v>
+        <v>183.386615658692</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>169.5842971761421</v>
       </c>
       <c r="H20" t="n">
-        <v>67.97353966774048</v>
+        <v>67.97353966774079</v>
       </c>
       <c r="I20" t="n">
-        <v>9.742606721374612e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.193986148209023</v>
+        <v>8.193986148209035</v>
       </c>
       <c r="V20" t="n">
         <v>84.82378941306095</v>
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2169,16 +2169,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15.4194986508731</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>8.766514103845651</v>
       </c>
       <c r="X21" t="n">
-        <v>134.1282987283329</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>93.08189356270827</v>
+        <v>93.08189356270826</v>
       </c>
       <c r="U22" t="n">
         <v>43.32229747747818</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I24" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>16.18412459413581</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>225.8431737758271</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0.09913595059399084</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>8.766514103845651</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.792086379175</v>
+        <v>93.08189356270827</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267.5936883037941</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C26" t="n">
-        <v>250.1327384113211</v>
+        <v>250.1327384113213</v>
       </c>
       <c r="D26" t="n">
-        <v>239.5428882609965</v>
+        <v>239.5428882609967</v>
       </c>
       <c r="E26" t="n">
-        <v>266.7902167125753</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F26" t="n">
-        <v>291.735892382025</v>
+        <v>291.7358923820252</v>
       </c>
       <c r="G26" t="n">
-        <v>297.3726128735296</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H26" t="n">
-        <v>195.761855365128</v>
+        <v>195.7618553651282</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30344563983021</v>
+        <v>30.30344563983042</v>
       </c>
       <c r="T26" t="n">
-        <v>95.74259691784459</v>
+        <v>95.74259691784481</v>
       </c>
       <c r="U26" t="n">
-        <v>135.9823018455965</v>
+        <v>135.9823018455967</v>
       </c>
       <c r="V26" t="n">
-        <v>212.6121051104485</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W26" t="n">
-        <v>234.1008153577266</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X26" t="n">
-        <v>254.5909473187826</v>
+        <v>254.5909473187828</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.0977852963671</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.39303029018089</v>
+        <v>51.3930302901811</v>
       </c>
       <c r="C27" t="n">
-        <v>57.56834562862929</v>
+        <v>57.5683456286295</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>32.30491220495252</v>
       </c>
       <c r="E27" t="n">
-        <v>42.50492709571449</v>
+        <v>110.0021208259482</v>
       </c>
       <c r="F27" t="n">
-        <v>29.92905903369743</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>20.71059756527857</v>
+        <v>20.71059756527879</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>38.00095315743243</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.475382974551593</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>143.9556929504599</v>
+        <v>28.8155395907737</v>
       </c>
       <c r="T27" t="n">
-        <v>101.0285374380022</v>
+        <v>194.1478331994369</v>
       </c>
       <c r="U27" t="n">
-        <v>110.7030204161406</v>
+        <v>110.7030204161408</v>
       </c>
       <c r="V27" t="n">
-        <v>117.6604337897388</v>
+        <v>117.660433789739</v>
       </c>
       <c r="W27" t="n">
-        <v>136.5548298012332</v>
+        <v>136.5548298012334</v>
       </c>
       <c r="X27" t="n">
-        <v>90.63283184379102</v>
+        <v>90.63283184379124</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.54254241761791</v>
+        <v>90.54254241761812</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.69182682225085</v>
+        <v>64.69182682225106</v>
       </c>
       <c r="C28" t="n">
-        <v>52.10666773894138</v>
+        <v>52.1066677389416</v>
       </c>
       <c r="D28" t="n">
-        <v>33.4753196585259</v>
+        <v>33.47531965852612</v>
       </c>
       <c r="E28" t="n">
-        <v>31.29380928688272</v>
+        <v>31.29380928688293</v>
       </c>
       <c r="F28" t="n">
-        <v>30.28089466324479</v>
+        <v>30.28089466324501</v>
       </c>
       <c r="G28" t="n">
-        <v>51.59934092989513</v>
+        <v>51.59934092989534</v>
       </c>
       <c r="H28" t="n">
-        <v>35.96017917173601</v>
+        <v>35.96017917173622</v>
       </c>
       <c r="I28" t="n">
-        <v>2.674752405338083</v>
+        <v>2.674752405338296</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.881918465969122</v>
+        <v>5.881918465969335</v>
       </c>
       <c r="S28" t="n">
-        <v>87.06647306785351</v>
+        <v>87.06647306785372</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4581816833926</v>
+        <v>107.4581816833928</v>
       </c>
       <c r="U28" t="n">
-        <v>171.1106131748657</v>
+        <v>171.1106131748659</v>
       </c>
       <c r="V28" t="n">
-        <v>136.9974899641416</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W28" t="n">
-        <v>171.3828449769046</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X28" t="n">
-        <v>110.5695020293507</v>
+        <v>110.5695020293509</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.4444999924083</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>267.5936883037941</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C29" t="n">
-        <v>250.1327384113211</v>
+        <v>250.1327384113213</v>
       </c>
       <c r="D29" t="n">
-        <v>239.5428882609965</v>
+        <v>239.5428882609967</v>
       </c>
       <c r="E29" t="n">
-        <v>266.7902167125753</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F29" t="n">
-        <v>291.735892382025</v>
+        <v>291.7358923820252</v>
       </c>
       <c r="G29" t="n">
-        <v>297.3726128735296</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H29" t="n">
-        <v>195.761855365128</v>
+        <v>195.7618553651282</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30344563983021</v>
+        <v>30.30344563983043</v>
       </c>
       <c r="T29" t="n">
-        <v>95.74259691784459</v>
+        <v>95.74259691784481</v>
       </c>
       <c r="U29" t="n">
-        <v>135.9823018455965</v>
+        <v>135.9823018455967</v>
       </c>
       <c r="V29" t="n">
-        <v>212.6121051104485</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W29" t="n">
-        <v>234.1008153577266</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X29" t="n">
-        <v>254.5909473187826</v>
+        <v>254.5909473187828</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.0977852963671</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.39303029018089</v>
+        <v>51.3930302901811</v>
       </c>
       <c r="C30" t="n">
-        <v>57.56834562862929</v>
+        <v>57.5683456286295</v>
       </c>
       <c r="D30" t="n">
-        <v>32.3049122049523</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>42.50492709571449</v>
+        <v>42.50492709571471</v>
       </c>
       <c r="F30" t="n">
-        <v>29.92905903369743</v>
+        <v>97.4262527639311</v>
       </c>
       <c r="G30" t="n">
-        <v>20.71059756527857</v>
+        <v>20.71059756527879</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>38.00095315743243</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>28.81553959077349</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T30" t="n">
-        <v>79.00767983975044</v>
+        <v>79.00767983975065</v>
       </c>
       <c r="U30" t="n">
-        <v>140.199260988944</v>
+        <v>110.7030204161408</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>117.660433789739</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>136.5548298012334</v>
       </c>
       <c r="X30" t="n">
-        <v>90.63283184379102</v>
+        <v>90.63283184379124</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.54254241761791</v>
+        <v>90.54254241761812</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.69182682225085</v>
+        <v>64.69182682225106</v>
       </c>
       <c r="C31" t="n">
-        <v>52.10666773894138</v>
+        <v>52.1066677389416</v>
       </c>
       <c r="D31" t="n">
-        <v>33.4753196585259</v>
+        <v>33.47531965852612</v>
       </c>
       <c r="E31" t="n">
-        <v>31.29380928688272</v>
+        <v>31.29380928688293</v>
       </c>
       <c r="F31" t="n">
-        <v>30.28089466324479</v>
+        <v>30.28089466324501</v>
       </c>
       <c r="G31" t="n">
-        <v>51.59934092989513</v>
+        <v>51.59934092989534</v>
       </c>
       <c r="H31" t="n">
-        <v>35.96017917173601</v>
+        <v>35.96017917173622</v>
       </c>
       <c r="I31" t="n">
-        <v>2.674752405338083</v>
+        <v>2.674752405338296</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.881918465969122</v>
+        <v>5.881918465969335</v>
       </c>
       <c r="S31" t="n">
-        <v>87.06647306785351</v>
+        <v>87.06647306785372</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4581816833926</v>
+        <v>107.4581816833928</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1106131748657</v>
+        <v>171.1106131748659</v>
       </c>
       <c r="V31" t="n">
-        <v>136.9974899641416</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W31" t="n">
-        <v>171.3828449769046</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X31" t="n">
-        <v>110.5695020293507</v>
+        <v>110.5695020293509</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.4444999924083</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>267.5936883037941</v>
+        <v>267.5936883037944</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1327384113211</v>
+        <v>250.1327384113213</v>
       </c>
       <c r="D32" t="n">
-        <v>239.5428882609965</v>
+        <v>239.5428882609967</v>
       </c>
       <c r="E32" t="n">
-        <v>266.7902167125753</v>
+        <v>266.7902167125756</v>
       </c>
       <c r="F32" t="n">
-        <v>291.735892382025</v>
+        <v>291.7358923820252</v>
       </c>
       <c r="G32" t="n">
-        <v>297.3726128735296</v>
+        <v>297.3726128735299</v>
       </c>
       <c r="H32" t="n">
-        <v>195.761855365128</v>
+        <v>195.7618553651282</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.3034456398302</v>
+        <v>30.30344563983044</v>
       </c>
       <c r="T32" t="n">
-        <v>95.74259691784458</v>
+        <v>95.74259691784482</v>
       </c>
       <c r="U32" t="n">
-        <v>135.9823018455965</v>
+        <v>135.9823018455968</v>
       </c>
       <c r="V32" t="n">
-        <v>212.6121051104485</v>
+        <v>212.6121051104487</v>
       </c>
       <c r="W32" t="n">
-        <v>234.1008153577266</v>
+        <v>234.1008153577268</v>
       </c>
       <c r="X32" t="n">
-        <v>254.5909473187826</v>
+        <v>254.5909473187828</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.0977852963671</v>
+        <v>271.0977852963674</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.39303029018087</v>
+        <v>51.39303029018112</v>
       </c>
       <c r="C33" t="n">
-        <v>57.56834562862927</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>32.30491220495229</v>
+        <v>32.30491220495253</v>
       </c>
       <c r="E33" t="n">
-        <v>42.50492709571448</v>
+        <v>42.50492709571472</v>
       </c>
       <c r="F33" t="n">
-        <v>29.92905903369741</v>
+        <v>29.92905903369765</v>
       </c>
       <c r="G33" t="n">
-        <v>20.71059756527856</v>
+        <v>20.7105975652788</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.475382974551593</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>28.81553959077348</v>
+        <v>28.81553959077372</v>
       </c>
       <c r="T33" t="n">
-        <v>79.00767983975042</v>
+        <v>115.6998615828443</v>
       </c>
       <c r="U33" t="n">
-        <v>170.7248311718248</v>
+        <v>110.7030204161409</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>117.660433789739</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>136.5548298012334</v>
       </c>
       <c r="X33" t="n">
-        <v>90.63283184379101</v>
+        <v>90.63283184379125</v>
       </c>
       <c r="Y33" t="n">
-        <v>90.5425424176179</v>
+        <v>90.54254241761814</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.69182682225083</v>
+        <v>64.69182682225107</v>
       </c>
       <c r="C34" t="n">
-        <v>52.10666773894137</v>
+        <v>52.10666773894161</v>
       </c>
       <c r="D34" t="n">
-        <v>33.47531965852589</v>
+        <v>33.47531965852613</v>
       </c>
       <c r="E34" t="n">
-        <v>31.29380928688271</v>
+        <v>31.29380928688295</v>
       </c>
       <c r="F34" t="n">
-        <v>30.28089466324478</v>
+        <v>30.28089466324502</v>
       </c>
       <c r="G34" t="n">
-        <v>51.59934092989511</v>
+        <v>51.59934092989536</v>
       </c>
       <c r="H34" t="n">
-        <v>35.96017917173599</v>
+        <v>35.96017917173624</v>
       </c>
       <c r="I34" t="n">
-        <v>2.674752405338069</v>
+        <v>2.67475240533831</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.881918465969108</v>
+        <v>5.881918465969349</v>
       </c>
       <c r="S34" t="n">
-        <v>87.06647306785349</v>
+        <v>87.06647306785374</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4581816833925</v>
+        <v>107.4581816833928</v>
       </c>
       <c r="U34" t="n">
-        <v>171.1106131748657</v>
+        <v>171.1106131748659</v>
       </c>
       <c r="V34" t="n">
-        <v>136.9974899641416</v>
+        <v>136.9974899641418</v>
       </c>
       <c r="W34" t="n">
-        <v>171.3828449769046</v>
+        <v>171.3828449769048</v>
       </c>
       <c r="X34" t="n">
-        <v>110.5695020293507</v>
+        <v>110.5695020293509</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.4444999924083</v>
+        <v>103.4444999924086</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.7763536111303</v>
+        <v>162.7763536111306</v>
       </c>
       <c r="C35" t="n">
-        <v>145.3154037186573</v>
+        <v>145.3154037186576</v>
       </c>
       <c r="D35" t="n">
-        <v>134.7255535683327</v>
+        <v>134.725553568333</v>
       </c>
       <c r="E35" t="n">
-        <v>161.9728820199115</v>
+        <v>161.9728820199118</v>
       </c>
       <c r="F35" t="n">
-        <v>186.9185576893612</v>
+        <v>186.9185576893614</v>
       </c>
       <c r="G35" t="n">
-        <v>192.5552781808659</v>
+        <v>192.5552781808661</v>
       </c>
       <c r="H35" t="n">
-        <v>90.94452067246419</v>
+        <v>90.94452067246445</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>31.16496715293275</v>
+        <v>31.164967152933</v>
       </c>
       <c r="V35" t="n">
-        <v>107.7947704177847</v>
+        <v>107.7947704177849</v>
       </c>
       <c r="W35" t="n">
-        <v>129.2834806650628</v>
+        <v>129.283480665063</v>
       </c>
       <c r="X35" t="n">
-        <v>149.7736126261188</v>
+        <v>149.773612626119</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037036</v>
       </c>
     </row>
     <row r="36">
@@ -3351,10 +3351,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>17.53905280203136</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>5.885685723476838</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V36" t="n">
-        <v>12.84309909707503</v>
+        <v>12.84309909707528</v>
       </c>
       <c r="W36" t="n">
-        <v>31.73749510856936</v>
+        <v>31.73749510856962</v>
       </c>
       <c r="X36" t="n">
-        <v>140.5552332090749</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>62.48612903758815</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.640846990728757</v>
+        <v>2.640846990729012</v>
       </c>
       <c r="U37" t="n">
-        <v>66.29327848220188</v>
+        <v>66.29327848220214</v>
       </c>
       <c r="V37" t="n">
-        <v>32.18015527147776</v>
+        <v>32.18015527147801</v>
       </c>
       <c r="W37" t="n">
-        <v>66.56551028424076</v>
+        <v>129.0516393218279</v>
       </c>
       <c r="X37" t="n">
-        <v>5.752167336686909</v>
+        <v>5.752167336687165</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.7763536111302</v>
+        <v>162.7763536111305</v>
       </c>
       <c r="C38" t="n">
-        <v>145.3154037186572</v>
+        <v>145.3154037186575</v>
       </c>
       <c r="D38" t="n">
-        <v>134.7255535683326</v>
+        <v>134.7255535683329</v>
       </c>
       <c r="E38" t="n">
-        <v>161.9728820199115</v>
+        <v>161.9728820199117</v>
       </c>
       <c r="F38" t="n">
-        <v>186.9185576893611</v>
+        <v>186.9185576893614</v>
       </c>
       <c r="G38" t="n">
-        <v>192.5552781808657</v>
+        <v>192.555278180866</v>
       </c>
       <c r="H38" t="n">
-        <v>90.94452067246411</v>
+        <v>90.94452067246436</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>31.16496715293265</v>
+        <v>31.16496715293292</v>
       </c>
       <c r="V38" t="n">
-        <v>107.7947704177846</v>
+        <v>107.7947704177848</v>
       </c>
       <c r="W38" t="n">
-        <v>129.2834806650627</v>
+        <v>129.2834806650629</v>
       </c>
       <c r="X38" t="n">
-        <v>149.7736126261187</v>
+        <v>149.773612626119</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037035</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I39" t="n">
         <v>48.12670030601735</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>16.18412459413581</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>225.8431737758271</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>12.8430990970752</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>31.73749510856953</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>147.9819786799939</v>
       </c>
     </row>
     <row r="40">
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>65.12697602831729</v>
+        <v>2.640846990728927</v>
       </c>
       <c r="U40" t="n">
-        <v>66.2932784822018</v>
+        <v>66.29327848220206</v>
       </c>
       <c r="V40" t="n">
-        <v>32.18015527147767</v>
+        <v>32.18015527147793</v>
       </c>
       <c r="W40" t="n">
-        <v>66.56551028424067</v>
+        <v>66.56551028424093</v>
       </c>
       <c r="X40" t="n">
-        <v>5.752167336686824</v>
+        <v>68.23829637427444</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.7763536111302</v>
+        <v>162.7763536111306</v>
       </c>
       <c r="C41" t="n">
-        <v>145.3154037186572</v>
+        <v>145.3154037186576</v>
       </c>
       <c r="D41" t="n">
-        <v>134.7255535683326</v>
+        <v>134.725553568333</v>
       </c>
       <c r="E41" t="n">
-        <v>161.9728820199115</v>
+        <v>161.9728820199118</v>
       </c>
       <c r="F41" t="n">
-        <v>186.9185576893611</v>
+        <v>186.9185576893614</v>
       </c>
       <c r="G41" t="n">
-        <v>192.5552781808657</v>
+        <v>192.5552781808661</v>
       </c>
       <c r="H41" t="n">
-        <v>90.94452067246411</v>
+        <v>90.94452067246445</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>31.16496715293265</v>
+        <v>31.164967152933</v>
       </c>
       <c r="V41" t="n">
-        <v>107.7947704177846</v>
+        <v>107.7947704177849</v>
       </c>
       <c r="W41" t="n">
-        <v>129.2834806650627</v>
+        <v>129.283480665063</v>
       </c>
       <c r="X41" t="n">
-        <v>149.7736126261187</v>
+        <v>149.773612626119</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037036</v>
       </c>
     </row>
     <row r="42">
@@ -3822,19 +3822,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>6.753633141164532</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.9556929504599</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>5.885685723476753</v>
+        <v>225.8431737758271</v>
       </c>
       <c r="V42" t="n">
-        <v>12.84309909707494</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>31.73749510856928</v>
+        <v>31.73749510856962</v>
       </c>
       <c r="X42" t="n">
-        <v>140.5552332090749</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.640846990728671</v>
+        <v>2.640846990729012</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7794075197904</v>
+        <v>66.29327848220214</v>
       </c>
       <c r="V43" t="n">
-        <v>32.18015527147767</v>
+        <v>32.18015527147801</v>
       </c>
       <c r="W43" t="n">
-        <v>66.56551028424067</v>
+        <v>66.56551028424101</v>
       </c>
       <c r="X43" t="n">
-        <v>5.752167336686824</v>
+        <v>68.23829637427404</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>162.7763536111303</v>
+        <v>162.7763536111306</v>
       </c>
       <c r="C44" t="n">
-        <v>145.3154037186573</v>
+        <v>145.3154037186576</v>
       </c>
       <c r="D44" t="n">
-        <v>134.7255535683327</v>
+        <v>134.725553568333</v>
       </c>
       <c r="E44" t="n">
-        <v>161.9728820199115</v>
+        <v>161.9728820199118</v>
       </c>
       <c r="F44" t="n">
-        <v>186.9185576893611</v>
+        <v>186.9185576893614</v>
       </c>
       <c r="G44" t="n">
-        <v>192.5552781808658</v>
+        <v>192.5552781808661</v>
       </c>
       <c r="H44" t="n">
-        <v>90.94452067246414</v>
+        <v>90.94452067246445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.16496715293268</v>
+        <v>31.16496715293299</v>
       </c>
       <c r="V44" t="n">
-        <v>107.7947704177846</v>
+        <v>107.7947704177849</v>
       </c>
       <c r="W44" t="n">
-        <v>129.2834806650627</v>
+        <v>129.283480665063</v>
       </c>
       <c r="X44" t="n">
-        <v>149.7736126261187</v>
+        <v>149.773612626119</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.2804506037033</v>
+        <v>166.2804506037036</v>
       </c>
     </row>
     <row r="45">
@@ -4056,22 +4056,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.850750924965</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>97.81846504080859</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>143.9556929504599</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8431737758271</v>
+        <v>5.885685723477094</v>
       </c>
       <c r="V45" t="n">
-        <v>12.84309909707497</v>
+        <v>20.94842285773081</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.08449999413108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4177,28 +4177,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.71019281646672</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.77593622112178</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.6408469907287</v>
+        <v>2.640846990729012</v>
       </c>
       <c r="U46" t="n">
-        <v>66.29327848220183</v>
+        <v>66.29327848220214</v>
       </c>
       <c r="V46" t="n">
-        <v>32.1801552714777</v>
+        <v>94.66628430906491</v>
       </c>
       <c r="W46" t="n">
-        <v>66.5655102842407</v>
+        <v>66.56551028424101</v>
       </c>
       <c r="X46" t="n">
-        <v>5.752167336686853</v>
+        <v>5.752167336687165</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>963.3155683909049</v>
+        <v>310.4339895081737</v>
       </c>
       <c r="C11" t="n">
-        <v>723.4321582155312</v>
+        <v>310.4339895081737</v>
       </c>
       <c r="D11" t="n">
-        <v>494.2455663738187</v>
+        <v>310.4339895081737</v>
       </c>
       <c r="E11" t="n">
-        <v>494.2455663738187</v>
+        <v>310.4339895081737</v>
       </c>
       <c r="F11" t="n">
-        <v>212.3387683492491</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="G11" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="H11" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="I11" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="J11" t="n">
-        <v>83.71911784006772</v>
+        <v>83.71911784006807</v>
       </c>
       <c r="K11" t="n">
-        <v>217.1760266634139</v>
+        <v>217.1760266634146</v>
       </c>
       <c r="L11" t="n">
-        <v>419.6428849838412</v>
+        <v>419.6428849838418</v>
       </c>
       <c r="M11" t="n">
-        <v>676.5957134965338</v>
+        <v>676.5957134965345</v>
       </c>
       <c r="N11" t="n">
-        <v>942.3201157893063</v>
+        <v>942.3201157893071</v>
       </c>
       <c r="O11" t="n">
-        <v>1179.900872569998</v>
+        <v>1179.900872569999</v>
       </c>
       <c r="P11" t="n">
-        <v>1348.169550998292</v>
+        <v>1348.169550998293</v>
       </c>
       <c r="Q11" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="R11" t="n">
-        <v>1426.359574180211</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="S11" t="n">
-        <v>1426.359574180211</v>
+        <v>1408.525954683112</v>
       </c>
       <c r="T11" t="n">
-        <v>1426.359574180211</v>
+        <v>1366.134134195461</v>
       </c>
       <c r="U11" t="n">
-        <v>1426.359574180211</v>
+        <v>1241.554195298597</v>
       </c>
       <c r="V11" t="n">
-        <v>1224.375793601679</v>
+        <v>1039.570414720065</v>
       </c>
       <c r="W11" t="n">
-        <v>1224.375793601679</v>
+        <v>815.8808662149891</v>
       </c>
       <c r="X11" t="n">
-        <v>1224.375793601679</v>
+        <v>571.4942147189473</v>
       </c>
       <c r="Y11" t="n">
-        <v>963.3155683909049</v>
+        <v>310.4339895081737</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>506.4788341859781</v>
+        <v>577.1459990396615</v>
       </c>
       <c r="C12" t="n">
-        <v>461.1049116698891</v>
+        <v>531.7720765235727</v>
       </c>
       <c r="D12" t="n">
-        <v>312.1705020086378</v>
+        <v>511.9167736273595</v>
       </c>
       <c r="E12" t="n">
-        <v>152.9330470031823</v>
+        <v>481.7584253869421</v>
       </c>
       <c r="F12" t="n">
-        <v>135.4775957951053</v>
+        <v>464.3029741788652</v>
       </c>
       <c r="G12" t="n">
-        <v>127.3337218278553</v>
+        <v>327.0799934465772</v>
       </c>
       <c r="H12" t="n">
-        <v>28.52719148360423</v>
+        <v>228.2734631023262</v>
       </c>
       <c r="I12" t="n">
-        <v>28.52719148360423</v>
+        <v>228.2734631023262</v>
       </c>
       <c r="J12" t="n">
-        <v>42.58127776197358</v>
+        <v>242.3275493806955</v>
       </c>
       <c r="K12" t="n">
-        <v>144.7567744385589</v>
+        <v>344.5030460572809</v>
       </c>
       <c r="L12" t="n">
-        <v>328.4668801148408</v>
+        <v>528.2131517335628</v>
       </c>
       <c r="M12" t="n">
-        <v>562.2047765654393</v>
+        <v>761.9510481841612</v>
       </c>
       <c r="N12" t="n">
-        <v>816.5376645420147</v>
+        <v>1016.283936160737</v>
       </c>
       <c r="O12" t="n">
-        <v>1026.98277387907</v>
+        <v>1226.729045497792</v>
       </c>
       <c r="P12" t="n">
-        <v>1176.550461047348</v>
+        <v>1376.29673266607</v>
       </c>
       <c r="Q12" t="n">
-        <v>1226.61330256149</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="R12" t="n">
-        <v>1173.080926010104</v>
+        <v>1426.359574180212</v>
       </c>
       <c r="S12" t="n">
-        <v>1156.750241916091</v>
+        <v>1410.0288900862</v>
       </c>
       <c r="T12" t="n">
-        <v>1089.720426257456</v>
+        <v>1342.999074427564</v>
       </c>
       <c r="U12" t="n">
-        <v>990.6751150671129</v>
+        <v>1114.874656472183</v>
       </c>
       <c r="V12" t="n">
-        <v>884.6021136004082</v>
+        <v>1008.801655005479</v>
       </c>
       <c r="W12" t="n">
-        <v>703.0686498814189</v>
+        <v>883.6434050423154</v>
       </c>
       <c r="X12" t="n">
-        <v>624.296256440924</v>
+        <v>804.8710116018207</v>
       </c>
       <c r="Y12" t="n">
-        <v>545.6150644410081</v>
+        <v>726.1898196019049</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.9587444361487</v>
+        <v>188.958744436148</v>
       </c>
       <c r="C13" t="n">
-        <v>149.1016682732798</v>
+        <v>149.1016682732792</v>
       </c>
       <c r="D13" t="n">
-        <v>128.0641356259821</v>
+        <v>128.0641356259816</v>
       </c>
       <c r="E13" t="n">
-        <v>109.2301488086269</v>
+        <v>109.2301488086266</v>
       </c>
       <c r="F13" t="n">
-        <v>91.41930807575457</v>
+        <v>91.41930807575436</v>
       </c>
       <c r="G13" t="n">
-        <v>52.07468323515459</v>
+        <v>52.0746832351545</v>
       </c>
       <c r="H13" t="n">
-        <v>28.52719148360423</v>
+        <v>28.52719148360425</v>
       </c>
       <c r="I13" t="n">
-        <v>28.52719148360423</v>
+        <v>38.4008673166438</v>
       </c>
       <c r="J13" t="n">
-        <v>28.52719148360423</v>
+        <v>126.7810270579759</v>
       </c>
       <c r="K13" t="n">
-        <v>107.4997553860482</v>
+        <v>269.5141466318129</v>
       </c>
       <c r="L13" t="n">
-        <v>284.6754397557926</v>
+        <v>320.1793984611436</v>
       </c>
       <c r="M13" t="n">
-        <v>467.8635595719202</v>
+        <v>503.3675182772713</v>
       </c>
       <c r="N13" t="n">
-        <v>657.5615365714393</v>
+        <v>693.0654952767906</v>
       </c>
       <c r="O13" t="n">
-        <v>822.1228047026502</v>
+        <v>857.6267634080016</v>
       </c>
       <c r="P13" t="n">
-        <v>962.1303294414857</v>
+        <v>962.1303294414836</v>
       </c>
       <c r="Q13" t="n">
-        <v>1042.397671093597</v>
+        <v>1042.397671093595</v>
       </c>
       <c r="R13" t="n">
-        <v>1049.096252526612</v>
+        <v>1049.09625252661</v>
       </c>
       <c r="S13" t="n">
-        <v>973.9262416880742</v>
+        <v>973.9262416880727</v>
       </c>
       <c r="T13" t="n">
-        <v>878.158545379295</v>
+        <v>878.1585453792936</v>
       </c>
       <c r="U13" t="n">
-        <v>718.0954637255934</v>
+        <v>718.0954637255921</v>
       </c>
       <c r="V13" t="n">
-        <v>592.4900822847445</v>
+        <v>592.4900822847434</v>
       </c>
       <c r="W13" t="n">
-        <v>432.1520190128219</v>
+        <v>432.1520190128209</v>
       </c>
       <c r="X13" t="n">
-        <v>333.2415748798425</v>
+        <v>333.2415748798416</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.5281025013504</v>
+        <v>241.5281025013496</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>615.046080988966</v>
+        <v>735.2807259738773</v>
       </c>
       <c r="C14" t="n">
-        <v>470.1996636071406</v>
+        <v>495.3973157985037</v>
       </c>
       <c r="D14" t="n">
-        <v>470.1996636071406</v>
+        <v>495.3973157985037</v>
       </c>
       <c r="E14" t="n">
-        <v>213.4905177739344</v>
+        <v>495.3973157985037</v>
       </c>
       <c r="F14" t="n">
-        <v>213.4905177739344</v>
+        <v>213.4905177739343</v>
       </c>
       <c r="G14" t="n">
-        <v>213.4905177739344</v>
+        <v>213.4905177739343</v>
       </c>
       <c r="H14" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I14" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J14" t="n">
-        <v>83.71911784006807</v>
+        <v>83.71911784006781</v>
       </c>
       <c r="K14" t="n">
-        <v>217.1760266634146</v>
+        <v>217.176026663414</v>
       </c>
       <c r="L14" t="n">
-        <v>419.6428849838418</v>
+        <v>419.6428849838412</v>
       </c>
       <c r="M14" t="n">
-        <v>676.5957134965345</v>
+        <v>676.595713496534</v>
       </c>
       <c r="N14" t="n">
-        <v>942.3201157893071</v>
+        <v>942.3201157893066</v>
       </c>
       <c r="O14" t="n">
-        <v>1179.900872569999</v>
+        <v>1179.900872569998</v>
       </c>
       <c r="P14" t="n">
-        <v>1348.169550998293</v>
+        <v>1348.169550998292</v>
       </c>
       <c r="Q14" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="R14" t="n">
-        <v>1426.359574180212</v>
+        <v>1426.359574180211</v>
       </c>
       <c r="S14" t="n">
-        <v>1426.359574180212</v>
+        <v>1408.525954683111</v>
       </c>
       <c r="T14" t="n">
-        <v>1426.359574180212</v>
+        <v>1324.592182379936</v>
       </c>
       <c r="U14" t="n">
-        <v>1301.779635283348</v>
+        <v>1200.012243483072</v>
       </c>
       <c r="V14" t="n">
-        <v>1099.795854704816</v>
+        <v>1200.012243483072</v>
       </c>
       <c r="W14" t="n">
-        <v>876.1063061997397</v>
+        <v>976.3226949779963</v>
       </c>
       <c r="X14" t="n">
-        <v>876.1063061997397</v>
+        <v>735.2807259738773</v>
       </c>
       <c r="Y14" t="n">
-        <v>615.046080988966</v>
+        <v>735.2807259738773</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>229.1491041980763</v>
+        <v>358.2282109631149</v>
       </c>
       <c r="C15" t="n">
-        <v>183.7751816819872</v>
+        <v>312.854288447026</v>
       </c>
       <c r="D15" t="n">
-        <v>163.919878785774</v>
+        <v>292.9989855508128</v>
       </c>
       <c r="E15" t="n">
-        <v>133.7615305453565</v>
+        <v>262.8406373103954</v>
       </c>
       <c r="F15" t="n">
-        <v>116.3060793372795</v>
+        <v>184.0904243870419</v>
       </c>
       <c r="G15" t="n">
-        <v>108.1622053700296</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="H15" t="n">
-        <v>28.52719148360425</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="I15" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J15" t="n">
-        <v>42.5812777619736</v>
+        <v>42.58127776197358</v>
       </c>
       <c r="K15" t="n">
         <v>144.7567744385589</v>
@@ -5382,25 +5382,25 @@
         <v>1226.61330256149</v>
       </c>
       <c r="S15" t="n">
-        <v>1210.282618467478</v>
+        <v>1081.20351170244</v>
       </c>
       <c r="T15" t="n">
-        <v>1143.252802808842</v>
+        <v>1014.173696043804</v>
       </c>
       <c r="U15" t="n">
-        <v>1044.207491618499</v>
+        <v>915.1283848534615</v>
       </c>
       <c r="V15" t="n">
-        <v>938.1344901517946</v>
+        <v>809.0553833867569</v>
       </c>
       <c r="W15" t="n">
-        <v>683.897133423593</v>
+        <v>683.8971334235935</v>
       </c>
       <c r="X15" t="n">
-        <v>476.0456332180602</v>
+        <v>605.1247399830987</v>
       </c>
       <c r="Y15" t="n">
-        <v>268.2853344531063</v>
+        <v>397.3644412181448</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.9587444361485</v>
+        <v>188.958744436148</v>
       </c>
       <c r="C16" t="n">
-        <v>149.1016682732796</v>
+        <v>149.1016682732792</v>
       </c>
       <c r="D16" t="n">
-        <v>128.0641356259819</v>
+        <v>128.0641356259816</v>
       </c>
       <c r="E16" t="n">
-        <v>109.2301488086269</v>
+        <v>109.2301488086266</v>
       </c>
       <c r="F16" t="n">
-        <v>91.41930807575453</v>
+        <v>91.41930807575434</v>
       </c>
       <c r="G16" t="n">
-        <v>52.07468323515458</v>
+        <v>52.07468323515448</v>
       </c>
       <c r="H16" t="n">
-        <v>28.52719148360425</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I16" t="n">
-        <v>28.52719148360425</v>
+        <v>38.40086731664378</v>
       </c>
       <c r="J16" t="n">
-        <v>116.9073512249363</v>
+        <v>126.7810270579759</v>
       </c>
       <c r="K16" t="n">
-        <v>133.1300382583595</v>
+        <v>269.5141466318129</v>
       </c>
       <c r="L16" t="n">
-        <v>310.3057226281039</v>
+        <v>446.6898310015574</v>
       </c>
       <c r="M16" t="n">
-        <v>474.562141004934</v>
+        <v>594.3739921123315</v>
       </c>
       <c r="N16" t="n">
-        <v>664.2601180044531</v>
+        <v>784.0719691118508</v>
       </c>
       <c r="O16" t="n">
-        <v>828.8213861356642</v>
+        <v>948.6332372430618</v>
       </c>
       <c r="P16" t="n">
-        <v>968.8289108744997</v>
+        <v>962.1303294414836</v>
       </c>
       <c r="Q16" t="n">
-        <v>1049.096252526611</v>
+        <v>1042.397671093595</v>
       </c>
       <c r="R16" t="n">
-        <v>1049.096252526611</v>
+        <v>1049.09625252661</v>
       </c>
       <c r="S16" t="n">
-        <v>973.9262416880737</v>
+        <v>973.9262416880727</v>
       </c>
       <c r="T16" t="n">
-        <v>878.1585453792945</v>
+        <v>878.1585453792936</v>
       </c>
       <c r="U16" t="n">
-        <v>718.095463725593</v>
+        <v>718.0954637255921</v>
       </c>
       <c r="V16" t="n">
-        <v>592.4900822847442</v>
+        <v>592.4900822847434</v>
       </c>
       <c r="W16" t="n">
-        <v>432.1520190128217</v>
+        <v>432.1520190128209</v>
       </c>
       <c r="X16" t="n">
-        <v>333.2415748798423</v>
+        <v>333.2415748798416</v>
       </c>
       <c r="Y16" t="n">
-        <v>241.5281025013502</v>
+        <v>241.5281025013496</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>687.377582501096</v>
       </c>
       <c r="D17" t="n">
-        <v>574.494175871188</v>
+        <v>574.4941758711877</v>
       </c>
       <c r="E17" t="n">
-        <v>434.0882152497863</v>
+        <v>434.0882152497859</v>
       </c>
       <c r="F17" t="n">
-        <v>268.4846024370211</v>
+        <v>268.4846024370207</v>
       </c>
       <c r="G17" t="n">
         <v>97.18733256212998</v>
       </c>
       <c r="H17" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I17" t="n">
-        <v>28.52719148360369</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J17" t="n">
-        <v>83.71911784006727</v>
+        <v>83.71911784006781</v>
       </c>
       <c r="K17" t="n">
-        <v>217.1760266634135</v>
+        <v>217.176026663414</v>
       </c>
       <c r="L17" t="n">
-        <v>419.6428849838407</v>
+        <v>419.6428849838412</v>
       </c>
       <c r="M17" t="n">
-        <v>676.5957134965336</v>
+        <v>676.595713496534</v>
       </c>
       <c r="N17" t="n">
-        <v>942.3201157893061</v>
+        <v>942.3201157893066</v>
       </c>
       <c r="O17" t="n">
         <v>1179.900872569998</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>657.686643404553</v>
+        <v>658.5714443676259</v>
       </c>
       <c r="C18" t="n">
-        <v>483.233614123426</v>
+        <v>484.1184150864988</v>
       </c>
       <c r="D18" t="n">
-        <v>334.2992044621748</v>
+        <v>335.1840054252476</v>
       </c>
       <c r="E18" t="n">
-        <v>175.0617494567192</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="F18" t="n">
-        <v>28.52719148360422</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="G18" t="n">
-        <v>28.52719148360422</v>
+        <v>175.9465504197921</v>
       </c>
       <c r="H18" t="n">
-        <v>28.52719148360422</v>
+        <v>77.14002007554095</v>
       </c>
       <c r="I18" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J18" t="n">
         <v>42.58127776197358</v>
@@ -5616,28 +5616,28 @@
         <v>1226.61330256149</v>
       </c>
       <c r="R18" t="n">
-        <v>1226.61330256149</v>
+        <v>1173.080926010104</v>
       </c>
       <c r="S18" t="n">
-        <v>1226.61330256149</v>
+        <v>1027.671135151053</v>
       </c>
       <c r="T18" t="n">
-        <v>1226.61330256149</v>
+        <v>875.2780093245179</v>
       </c>
       <c r="U18" t="n">
-        <v>1226.61330256149</v>
+        <v>875.2780093245179</v>
       </c>
       <c r="V18" t="n">
-        <v>1226.61330256149</v>
+        <v>875.2780093245179</v>
       </c>
       <c r="W18" t="n">
-        <v>1033.662279189575</v>
+        <v>866.4229445731587</v>
       </c>
       <c r="X18" t="n">
-        <v>1033.662279189575</v>
+        <v>658.5714443676259</v>
       </c>
       <c r="Y18" t="n">
-        <v>825.9019804246211</v>
+        <v>658.5714443676259</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="C19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="D19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="E19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="F19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="G19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="K19" t="n">
-        <v>44.74987851702738</v>
+        <v>44.7498785170274</v>
       </c>
       <c r="L19" t="n">
-        <v>95.41513034635811</v>
+        <v>95.41513034635813</v>
       </c>
       <c r="M19" t="n">
         <v>152.092817622072</v>
@@ -5704,19 +5704,19 @@
         <v>266.8282898703964</v>
       </c>
       <c r="U19" t="n">
-        <v>81.86426577276696</v>
+        <v>223.0683934284993</v>
       </c>
       <c r="V19" t="n">
-        <v>72.56206954372246</v>
+        <v>213.7661971994548</v>
       </c>
       <c r="W19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="X19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>810.9578074646652</v>
+        <v>810.9578074646655</v>
       </c>
       <c r="C20" t="n">
-        <v>687.377582501096</v>
+        <v>687.3775825010962</v>
       </c>
       <c r="D20" t="n">
-        <v>574.4941758711878</v>
+        <v>574.4941758711881</v>
       </c>
       <c r="E20" t="n">
-        <v>434.088215249786</v>
+        <v>434.0882152497862</v>
       </c>
       <c r="F20" t="n">
-        <v>268.4846024370208</v>
+        <v>268.4846024370211</v>
       </c>
       <c r="G20" t="n">
-        <v>97.18733256212995</v>
+        <v>97.18733256213029</v>
       </c>
       <c r="H20" t="n">
         <v>28.52719148360422</v>
       </c>
       <c r="I20" t="n">
-        <v>28.52719148360323</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="J20" t="n">
-        <v>83.71911784006682</v>
+        <v>83.71911784006772</v>
       </c>
       <c r="K20" t="n">
-        <v>217.176026663413</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L20" t="n">
-        <v>419.6428849838402</v>
+        <v>419.6428849838412</v>
       </c>
       <c r="M20" t="n">
-        <v>676.5957134965331</v>
+        <v>676.5957134965338</v>
       </c>
       <c r="N20" t="n">
-        <v>942.3201157893056</v>
+        <v>942.3201157893062</v>
       </c>
       <c r="O20" t="n">
-        <v>1179.900872569997</v>
+        <v>1179.900872569998</v>
       </c>
       <c r="P20" t="n">
-        <v>1348.169550998291</v>
+        <v>1348.169550998292</v>
       </c>
       <c r="Q20" t="n">
         <v>1426.359574180211</v>
@@ -5783,19 +5783,19 @@
         <v>1426.359574180211</v>
       </c>
       <c r="U20" t="n">
-        <v>1418.082820495151</v>
+        <v>1418.082820495152</v>
       </c>
       <c r="V20" t="n">
         <v>1332.402225128423</v>
       </c>
       <c r="W20" t="n">
-        <v>1225.015861835151</v>
+        <v>1225.015861835152</v>
       </c>
       <c r="X20" t="n">
         <v>1096.932395550914</v>
       </c>
       <c r="Y20" t="n">
-        <v>952.1753555519444</v>
+        <v>952.1753555519449</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>706.2994719964897</v>
+        <v>352.2743073128091</v>
       </c>
       <c r="C21" t="n">
-        <v>531.8464427153627</v>
+        <v>352.2743073128091</v>
       </c>
       <c r="D21" t="n">
-        <v>382.9120330541115</v>
+        <v>203.3398976515578</v>
       </c>
       <c r="E21" t="n">
-        <v>223.674578048656</v>
+        <v>44.1024426461023</v>
       </c>
       <c r="F21" t="n">
-        <v>77.14002007554093</v>
+        <v>44.1024426461023</v>
       </c>
       <c r="G21" t="n">
-        <v>77.14002007554093</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="H21" t="n">
-        <v>77.14002007554093</v>
+        <v>28.52719148360422</v>
       </c>
       <c r="I21" t="n">
         <v>28.52719148360422</v>
       </c>
       <c r="J21" t="n">
-        <v>42.58127776197357</v>
+        <v>42.58127776197358</v>
       </c>
       <c r="K21" t="n">
         <v>144.7567744385589</v>
@@ -5853,28 +5853,28 @@
         <v>1226.61330256149</v>
       </c>
       <c r="R21" t="n">
-        <v>1226.61330256149</v>
+        <v>1173.080926010104</v>
       </c>
       <c r="S21" t="n">
-        <v>1226.61330256149</v>
+        <v>1173.080926010104</v>
       </c>
       <c r="T21" t="n">
-        <v>1226.61330256149</v>
+        <v>1173.080926010104</v>
       </c>
       <c r="U21" t="n">
-        <v>1226.61330256149</v>
+        <v>944.956508054723</v>
       </c>
       <c r="V21" t="n">
-        <v>1226.61330256149</v>
+        <v>944.956508054723</v>
       </c>
       <c r="W21" t="n">
-        <v>1217.758237810131</v>
+        <v>936.1014433033638</v>
       </c>
       <c r="X21" t="n">
-        <v>1082.275107781512</v>
+        <v>728.249943097831</v>
       </c>
       <c r="Y21" t="n">
-        <v>874.5148090165578</v>
+        <v>520.4896443328771</v>
       </c>
     </row>
     <row r="22">
@@ -5941,10 +5941,10 @@
         <v>125.6241622146641</v>
       </c>
       <c r="U22" t="n">
-        <v>81.86426577276694</v>
+        <v>81.86426577276696</v>
       </c>
       <c r="V22" t="n">
-        <v>72.56206954372244</v>
+        <v>72.56206954372246</v>
       </c>
       <c r="W22" t="n">
         <v>28.52719148360422</v>
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>810.9578074646649</v>
+        <v>810.9578074646655</v>
       </c>
       <c r="C23" t="n">
-        <v>687.3775825010956</v>
+        <v>687.3775825010962</v>
       </c>
       <c r="D23" t="n">
-        <v>574.4941758711875</v>
+        <v>574.4941758711882</v>
       </c>
       <c r="E23" t="n">
-        <v>434.0882152497857</v>
+        <v>434.0882152497866</v>
       </c>
       <c r="F23" t="n">
-        <v>268.4846024370205</v>
+        <v>268.4846024370213</v>
       </c>
       <c r="G23" t="n">
         <v>97.18733256212997</v>
       </c>
       <c r="H23" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I23" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J23" t="n">
-        <v>83.71911784006784</v>
+        <v>83.71911784006772</v>
       </c>
       <c r="K23" t="n">
-        <v>217.176026663414</v>
+        <v>217.1760266634139</v>
       </c>
       <c r="L23" t="n">
-        <v>419.6428849838409</v>
+        <v>419.6428849838412</v>
       </c>
       <c r="M23" t="n">
-        <v>676.5957134965336</v>
+        <v>676.595713496534</v>
       </c>
       <c r="N23" t="n">
-        <v>942.3201157893062</v>
+        <v>942.3201157893066</v>
       </c>
       <c r="O23" t="n">
         <v>1179.900872569998</v>
       </c>
       <c r="P23" t="n">
-        <v>1348.169550998291</v>
+        <v>1348.169550998292</v>
       </c>
       <c r="Q23" t="n">
         <v>1426.359574180211</v>
@@ -6020,19 +6020,19 @@
         <v>1426.359574180211</v>
       </c>
       <c r="U23" t="n">
-        <v>1418.082820495151</v>
+        <v>1418.082820495152</v>
       </c>
       <c r="V23" t="n">
-        <v>1332.402225128423</v>
+        <v>1332.402225128424</v>
       </c>
       <c r="W23" t="n">
-        <v>1225.015861835151</v>
+        <v>1225.015861835152</v>
       </c>
       <c r="X23" t="n">
         <v>1096.932395550914</v>
       </c>
       <c r="Y23" t="n">
-        <v>952.1753555519443</v>
+        <v>952.1753555519449</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.14002007554095</v>
+        <v>560.0256701945095</v>
       </c>
       <c r="C24" t="n">
-        <v>77.14002007554095</v>
+        <v>560.0256701945095</v>
       </c>
       <c r="D24" t="n">
-        <v>77.14002007554095</v>
+        <v>411.0912605332583</v>
       </c>
       <c r="E24" t="n">
-        <v>77.14002007554095</v>
+        <v>411.0912605332583</v>
       </c>
       <c r="F24" t="n">
-        <v>77.14002007554095</v>
+        <v>264.5567025601432</v>
       </c>
       <c r="G24" t="n">
-        <v>77.14002007554095</v>
+        <v>127.3337218278553</v>
       </c>
       <c r="H24" t="n">
-        <v>77.14002007554095</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I24" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J24" t="n">
-        <v>42.58127776197357</v>
+        <v>42.58127776197358</v>
       </c>
       <c r="K24" t="n">
         <v>144.7567744385589</v>
@@ -6090,28 +6090,28 @@
         <v>1226.61330256149</v>
       </c>
       <c r="R24" t="n">
-        <v>1210.265701961353</v>
+        <v>1173.080926010104</v>
       </c>
       <c r="S24" t="n">
-        <v>1210.265701961353</v>
+        <v>1173.080926010104</v>
       </c>
       <c r="T24" t="n">
-        <v>1210.265701961353</v>
+        <v>1173.080926010104</v>
       </c>
       <c r="U24" t="n">
-        <v>982.141284005972</v>
+        <v>944.956508054723</v>
       </c>
       <c r="V24" t="n">
-        <v>746.9891757742294</v>
+        <v>944.8563707308907</v>
       </c>
       <c r="W24" t="n">
-        <v>492.7518190460277</v>
+        <v>936.0013059795315</v>
       </c>
       <c r="X24" t="n">
-        <v>284.9003188404948</v>
+        <v>936.0013059795315</v>
       </c>
       <c r="Y24" t="n">
-        <v>77.14002007554095</v>
+        <v>728.2410072145776</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.7313191393366</v>
+        <v>122.5493061934106</v>
       </c>
       <c r="C25" t="n">
-        <v>169.7313191393366</v>
+        <v>122.5493061934106</v>
       </c>
       <c r="D25" t="n">
-        <v>169.7313191393366</v>
+        <v>122.5493061934106</v>
       </c>
       <c r="E25" t="n">
-        <v>169.7313191393366</v>
+        <v>122.5493061934106</v>
       </c>
       <c r="F25" t="n">
-        <v>169.7313191393366</v>
+        <v>122.5493061934106</v>
       </c>
       <c r="G25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="H25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="I25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="J25" t="n">
-        <v>28.52719148360422</v>
+        <v>28.52719148360423</v>
       </c>
       <c r="K25" t="n">
-        <v>44.74987851702738</v>
+        <v>44.7498785170274</v>
       </c>
       <c r="L25" t="n">
-        <v>95.41513034635811</v>
+        <v>95.41513034635813</v>
       </c>
       <c r="M25" t="n">
         <v>152.092817622072</v>
@@ -6166,31 +6166,31 @@
         <v>266.8282898703964</v>
       </c>
       <c r="Q25" t="n">
-        <v>266.8282898703964</v>
+        <v>219.6462769244704</v>
       </c>
       <c r="R25" t="n">
-        <v>266.8282898703964</v>
+        <v>219.6462769244704</v>
       </c>
       <c r="S25" t="n">
-        <v>266.8282898703964</v>
+        <v>219.6462769244704</v>
       </c>
       <c r="T25" t="n">
-        <v>266.8282898703964</v>
+        <v>219.6462769244704</v>
       </c>
       <c r="U25" t="n">
-        <v>223.0683934284993</v>
+        <v>175.8863804825733</v>
       </c>
       <c r="V25" t="n">
-        <v>213.7661971994548</v>
+        <v>166.5841842535288</v>
       </c>
       <c r="W25" t="n">
-        <v>169.7313191393366</v>
+        <v>122.5493061934106</v>
       </c>
       <c r="X25" t="n">
-        <v>169.7313191393366</v>
+        <v>122.5493061934106</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.7313191393366</v>
+        <v>122.5493061934106</v>
       </c>
     </row>
     <row r="26">
@@ -6209,67 +6209,67 @@
         <v>1125.02016448414</v>
       </c>
       <c r="E26" t="n">
-        <v>855.5350970977004</v>
+        <v>855.5350970977001</v>
       </c>
       <c r="F26" t="n">
-        <v>560.8523775198973</v>
+        <v>560.8523775198969</v>
       </c>
       <c r="G26" t="n">
-        <v>260.4760008799678</v>
+        <v>260.4760008799681</v>
       </c>
       <c r="H26" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="I26" t="n">
-        <v>74.83913835551144</v>
+        <v>74.83913835551127</v>
       </c>
       <c r="J26" t="n">
-        <v>411.4254655584176</v>
+        <v>130.0310647119749</v>
       </c>
       <c r="K26" t="n">
-        <v>544.8823743817638</v>
+        <v>377.4767253614104</v>
       </c>
       <c r="L26" t="n">
-        <v>861.3379845282807</v>
+        <v>1107.416937912873</v>
       </c>
       <c r="M26" t="n">
-        <v>1232.279564867063</v>
+        <v>1478.358518251655</v>
       </c>
       <c r="N26" t="n">
-        <v>1756.926824667235</v>
+        <v>1846.342439484058</v>
       </c>
       <c r="O26" t="n">
-        <v>2108.496333274016</v>
+        <v>2197.911948090839</v>
       </c>
       <c r="P26" t="n">
-        <v>2709.334484618168</v>
+        <v>2595.345732792081</v>
       </c>
       <c r="Q26" t="n">
-        <v>2997.716348553393</v>
+        <v>2997.716348553396</v>
       </c>
       <c r="R26" t="n">
-        <v>3136.837651820209</v>
+        <v>3136.837651820211</v>
       </c>
       <c r="S26" t="n">
-        <v>3106.228110769875</v>
+        <v>3106.228110769877</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.518416913467</v>
+        <v>3009.518416913468</v>
       </c>
       <c r="U26" t="n">
-        <v>2872.162556463369</v>
+        <v>2872.16255646337</v>
       </c>
       <c r="V26" t="n">
-        <v>2657.402854331603</v>
+        <v>2657.402854331604</v>
       </c>
       <c r="W26" t="n">
-        <v>2420.937384273293</v>
+        <v>2420.937384273294</v>
       </c>
       <c r="X26" t="n">
-        <v>2163.774811224017</v>
+        <v>2163.774811224018</v>
       </c>
       <c r="Y26" t="n">
-        <v>1889.93866446001</v>
+        <v>1889.938664460011</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>402.2912460115465</v>
+        <v>432.0854284083163</v>
       </c>
       <c r="C27" t="n">
-        <v>344.141401942224</v>
+        <v>373.9355843389935</v>
       </c>
       <c r="D27" t="n">
-        <v>195.2069922809728</v>
+        <v>341.3043598895465</v>
       </c>
       <c r="E27" t="n">
-        <v>152.2727224873218</v>
+        <v>230.1911065300029</v>
       </c>
       <c r="F27" t="n">
-        <v>122.0413497260112</v>
+        <v>83.65654855688786</v>
       </c>
       <c r="G27" t="n">
-        <v>101.1215542055278</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="H27" t="n">
-        <v>101.1215542055278</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="I27" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J27" t="n">
-        <v>76.79083931477354</v>
+        <v>76.79083931477358</v>
       </c>
       <c r="K27" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L27" t="n">
-        <v>362.6764416676407</v>
+        <v>362.6764416676408</v>
       </c>
       <c r="M27" t="n">
-        <v>596.4143381182391</v>
+        <v>596.4143381182392</v>
       </c>
       <c r="N27" t="n">
-        <v>850.7472260948146</v>
+        <v>850.7472260948148</v>
       </c>
       <c r="O27" t="n">
         <v>1061.19233543187</v>
@@ -6327,28 +6327,28 @@
         <v>1260.82286411429</v>
       </c>
       <c r="R27" t="n">
-        <v>1253.271972220804</v>
+        <v>1260.82286411429</v>
       </c>
       <c r="S27" t="n">
-        <v>1107.862181361753</v>
+        <v>1231.716258467044</v>
       </c>
       <c r="T27" t="n">
-        <v>1005.8131536466</v>
+        <v>1035.60733604337</v>
       </c>
       <c r="U27" t="n">
-        <v>893.9919209030231</v>
+        <v>923.7861032997938</v>
       </c>
       <c r="V27" t="n">
-        <v>775.1429978830849</v>
+        <v>804.9371802798554</v>
       </c>
       <c r="W27" t="n">
-        <v>637.2088263666878</v>
+        <v>667.0030087634581</v>
       </c>
       <c r="X27" t="n">
-        <v>545.6605113729595</v>
+        <v>575.4546937697296</v>
       </c>
       <c r="Y27" t="n">
-        <v>454.2033978198101</v>
+        <v>483.99758021658</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302.5256054147517</v>
+        <v>302.5256054147532</v>
       </c>
       <c r="C28" t="n">
-        <v>249.8926076986493</v>
+        <v>249.8926076986506</v>
       </c>
       <c r="D28" t="n">
-        <v>216.0791534981181</v>
+        <v>216.0791534981192</v>
       </c>
       <c r="E28" t="n">
-        <v>184.4692451275295</v>
+        <v>184.4692451275304</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8824828414236</v>
+        <v>153.8824828414243</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7619364475901</v>
+        <v>101.7619364475906</v>
       </c>
       <c r="H28" t="n">
-        <v>65.43852314280629</v>
+        <v>65.43852314280655</v>
       </c>
       <c r="I28" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640422</v>
       </c>
       <c r="J28" t="n">
-        <v>110.466689958593</v>
+        <v>171.895110972908</v>
       </c>
       <c r="K28" t="n">
-        <v>346.3544574993117</v>
+        <v>293.7941266875371</v>
       </c>
       <c r="L28" t="n">
-        <v>511.008461154732</v>
+        <v>390.9405528814076</v>
       </c>
       <c r="M28" t="n">
-        <v>681.6749002565355</v>
+        <v>738.331556283562</v>
       </c>
       <c r="N28" t="n">
-        <v>858.8511965417305</v>
+        <v>971.6186404186845</v>
       </c>
       <c r="O28" t="n">
-        <v>1010.890783958617</v>
+        <v>1123.658227835571</v>
       </c>
       <c r="P28" t="n">
-        <v>1138.376627983129</v>
+        <v>1270.811817714894</v>
       </c>
       <c r="Q28" t="n">
-        <v>1270.81181771489</v>
+        <v>1270.811817714894</v>
       </c>
       <c r="R28" t="n">
-        <v>1264.870485931083</v>
+        <v>1264.870485931086</v>
       </c>
       <c r="S28" t="n">
-        <v>1176.924553539312</v>
+        <v>1176.924553539315</v>
       </c>
       <c r="T28" t="n">
-        <v>1068.380935677299</v>
+        <v>1068.380935677302</v>
       </c>
       <c r="U28" t="n">
-        <v>895.5419324703638</v>
+        <v>895.5419324703665</v>
       </c>
       <c r="V28" t="n">
-        <v>757.1606294762814</v>
+        <v>757.1606294762839</v>
       </c>
       <c r="W28" t="n">
-        <v>584.0466446511253</v>
+        <v>584.0466446511275</v>
       </c>
       <c r="X28" t="n">
-        <v>472.3602789649125</v>
+        <v>472.3602789649145</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8708850331869</v>
+        <v>367.8708850331886</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>1619.642009607694</v>
       </c>
       <c r="C29" t="n">
-        <v>1366.982677879086</v>
+        <v>1366.982677879087</v>
       </c>
       <c r="D29" t="n">
-        <v>1125.02016448414</v>
+        <v>1125.020164484141</v>
       </c>
       <c r="E29" t="n">
         <v>855.5350970977007</v>
       </c>
       <c r="F29" t="n">
-        <v>560.8523775198977</v>
+        <v>560.8523775198975</v>
       </c>
       <c r="G29" t="n">
-        <v>260.4760008799678</v>
+        <v>260.4760008799681</v>
       </c>
       <c r="H29" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="I29" t="n">
-        <v>74.83913835551144</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J29" t="n">
-        <v>411.4254655584176</v>
+        <v>231.9174312189572</v>
       </c>
       <c r="K29" t="n">
-        <v>979.7750846533065</v>
+        <v>479.3630918683928</v>
       </c>
       <c r="L29" t="n">
-        <v>1296.230694799823</v>
+        <v>1209.303304419855</v>
       </c>
       <c r="M29" t="n">
-        <v>1553.183523312516</v>
+        <v>1580.244884758637</v>
       </c>
       <c r="N29" t="n">
-        <v>1932.896677431378</v>
+        <v>2100.640097197734</v>
       </c>
       <c r="O29" t="n">
-        <v>2284.466186038159</v>
+        <v>2452.209605804515</v>
       </c>
       <c r="P29" t="n">
-        <v>2771.315585556221</v>
+        <v>2734.467036058898</v>
       </c>
       <c r="Q29" t="n">
-        <v>2997.716348553393</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="R29" t="n">
-        <v>3136.837651820209</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.228110769875</v>
+        <v>3106.228110769879</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.518416913467</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U29" t="n">
-        <v>2872.162556463369</v>
+        <v>2872.162556463371</v>
       </c>
       <c r="V29" t="n">
-        <v>2657.402854331603</v>
+        <v>2657.402854331605</v>
       </c>
       <c r="W29" t="n">
-        <v>2420.937384273293</v>
+        <v>2420.937384273295</v>
       </c>
       <c r="X29" t="n">
-        <v>2163.774811224018</v>
+        <v>2163.774811224019</v>
       </c>
       <c r="Y29" t="n">
-        <v>1889.938664460011</v>
+        <v>1889.938664460012</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>285.9880607997421</v>
+        <v>432.0854284083163</v>
       </c>
       <c r="C30" t="n">
-        <v>227.8382167304195</v>
+        <v>373.9355843389935</v>
       </c>
       <c r="D30" t="n">
-        <v>195.2069922809728</v>
+        <v>225.0011746777423</v>
       </c>
       <c r="E30" t="n">
-        <v>152.2727224873218</v>
+        <v>182.066904884091</v>
       </c>
       <c r="F30" t="n">
-        <v>122.0413497260112</v>
+        <v>83.65654855688788</v>
       </c>
       <c r="G30" t="n">
-        <v>101.1215542055278</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="H30" t="n">
-        <v>101.1215542055278</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="I30" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J30" t="n">
-        <v>76.79083931477354</v>
+        <v>76.79083931477361</v>
       </c>
       <c r="K30" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L30" t="n">
-        <v>362.6764416676407</v>
+        <v>362.6764416676408</v>
       </c>
       <c r="M30" t="n">
-        <v>596.4143381182391</v>
+        <v>596.4143381182392</v>
       </c>
       <c r="N30" t="n">
-        <v>850.7472260948146</v>
+        <v>850.7472260948148</v>
       </c>
       <c r="O30" t="n">
         <v>1061.19233543187</v>
@@ -6567,25 +6567,25 @@
         <v>1260.82286411429</v>
       </c>
       <c r="S30" t="n">
-        <v>1231.716258467044</v>
+        <v>1115.41307325524</v>
       </c>
       <c r="T30" t="n">
-        <v>1151.910521255175</v>
+        <v>1035.60733604337</v>
       </c>
       <c r="U30" t="n">
-        <v>1010.295106114828</v>
+        <v>923.7861032997938</v>
       </c>
       <c r="V30" t="n">
-        <v>775.1429978830849</v>
+        <v>804.9371802798554</v>
       </c>
       <c r="W30" t="n">
-        <v>520.9056411548834</v>
+        <v>667.0030087634581</v>
       </c>
       <c r="X30" t="n">
-        <v>429.357326161155</v>
+        <v>575.4546937697296</v>
       </c>
       <c r="Y30" t="n">
-        <v>337.9002126080056</v>
+        <v>483.99758021658</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>302.5256054147517</v>
+        <v>302.5256054147533</v>
       </c>
       <c r="C31" t="n">
-        <v>249.8926076986493</v>
+        <v>249.8926076986506</v>
       </c>
       <c r="D31" t="n">
-        <v>216.0791534981181</v>
+        <v>216.0791534981192</v>
       </c>
       <c r="E31" t="n">
-        <v>184.4692451275295</v>
+        <v>184.4692451275304</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8824828414236</v>
+        <v>153.8824828414243</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7619364475901</v>
+        <v>101.7619364475906</v>
       </c>
       <c r="H31" t="n">
-        <v>65.43852314280629</v>
+        <v>65.43852314280657</v>
       </c>
       <c r="I31" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J31" t="n">
-        <v>62.73675303640418</v>
+        <v>171.895110972908</v>
       </c>
       <c r="K31" t="n">
-        <v>298.624520577123</v>
+        <v>293.7941266875372</v>
       </c>
       <c r="L31" t="n">
-        <v>511.008461154732</v>
+        <v>505.3093330430068</v>
       </c>
       <c r="M31" t="n">
-        <v>681.6749002565355</v>
+        <v>561.9870203187206</v>
       </c>
       <c r="N31" t="n">
-        <v>858.8511965417305</v>
+        <v>677.7722009846996</v>
       </c>
       <c r="O31" t="n">
-        <v>1010.890783958617</v>
+        <v>991.2230381038098</v>
       </c>
       <c r="P31" t="n">
-        <v>1138.376627983129</v>
+        <v>1252.365379809222</v>
       </c>
       <c r="Q31" t="n">
-        <v>1270.81181771489</v>
+        <v>1270.811817714894</v>
       </c>
       <c r="R31" t="n">
-        <v>1264.870485931083</v>
+        <v>1264.870485931086</v>
       </c>
       <c r="S31" t="n">
-        <v>1176.924553539312</v>
+        <v>1176.924553539315</v>
       </c>
       <c r="T31" t="n">
-        <v>1068.380935677299</v>
+        <v>1068.380935677302</v>
       </c>
       <c r="U31" t="n">
-        <v>895.5419324703638</v>
+        <v>895.5419324703665</v>
       </c>
       <c r="V31" t="n">
-        <v>757.1606294762814</v>
+        <v>757.1606294762839</v>
       </c>
       <c r="W31" t="n">
-        <v>584.0466446511253</v>
+        <v>584.0466446511276</v>
       </c>
       <c r="X31" t="n">
-        <v>472.3602789649125</v>
+        <v>472.3602789649145</v>
       </c>
       <c r="Y31" t="n">
-        <v>367.8708850331869</v>
+        <v>367.8708850331887</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.642009607694</v>
+        <v>1619.642009607695</v>
       </c>
       <c r="C32" t="n">
-        <v>1366.982677879086</v>
+        <v>1366.982677879088</v>
       </c>
       <c r="D32" t="n">
-        <v>1125.02016448414</v>
+        <v>1125.020164484142</v>
       </c>
       <c r="E32" t="n">
-        <v>855.5350970977008</v>
+        <v>855.5350970977017</v>
       </c>
       <c r="F32" t="n">
-        <v>560.8523775198978</v>
+        <v>560.8523775198985</v>
       </c>
       <c r="G32" t="n">
-        <v>260.4760008799678</v>
+        <v>260.4760008799681</v>
       </c>
       <c r="H32" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="I32" t="n">
-        <v>74.83913835551145</v>
+        <v>74.83913835551128</v>
       </c>
       <c r="J32" t="n">
-        <v>411.4254655584177</v>
+        <v>411.4254655584173</v>
       </c>
       <c r="K32" t="n">
-        <v>953.5516128885015</v>
+        <v>865.7863328272166</v>
       </c>
       <c r="L32" t="n">
-        <v>1270.007223035018</v>
+        <v>1069.663236277739</v>
       </c>
       <c r="M32" t="n">
-        <v>1526.960051547711</v>
+        <v>1440.604816616521</v>
       </c>
       <c r="N32" t="n">
-        <v>1906.673205666573</v>
+        <v>1820.317970735383</v>
       </c>
       <c r="O32" t="n">
-        <v>2269.758677875485</v>
+        <v>2548.879658792282</v>
       </c>
       <c r="P32" t="n">
-        <v>2870.596829219636</v>
+        <v>2831.137089046665</v>
       </c>
       <c r="Q32" t="n">
-        <v>3062.775604227646</v>
+        <v>3023.315864054674</v>
       </c>
       <c r="R32" t="n">
-        <v>3136.837651820209</v>
+        <v>3136.837651820213</v>
       </c>
       <c r="S32" t="n">
-        <v>3106.228110769875</v>
+        <v>3106.228110769879</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.518416913467</v>
+        <v>3009.51841691347</v>
       </c>
       <c r="U32" t="n">
-        <v>2872.162556463369</v>
+        <v>2872.162556463372</v>
       </c>
       <c r="V32" t="n">
-        <v>2657.402854331603</v>
+        <v>2657.402854331606</v>
       </c>
       <c r="W32" t="n">
-        <v>2420.937384273293</v>
+        <v>2420.937384273296</v>
       </c>
       <c r="X32" t="n">
-        <v>2163.774811224018</v>
+        <v>2163.77481122402</v>
       </c>
       <c r="Y32" t="n">
-        <v>1889.938664460011</v>
+        <v>1889.938664460013</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>247.6032596306184</v>
+        <v>511.3258037786118</v>
       </c>
       <c r="C33" t="n">
-        <v>189.4534155612959</v>
+        <v>336.8727744974847</v>
       </c>
       <c r="D33" t="n">
-        <v>156.8221911118491</v>
+        <v>304.2415500480377</v>
       </c>
       <c r="E33" t="n">
-        <v>113.8879213181981</v>
+        <v>261.3072802543865</v>
       </c>
       <c r="F33" t="n">
-        <v>83.65654855688757</v>
+        <v>231.0759074930757</v>
       </c>
       <c r="G33" t="n">
-        <v>62.73675303640418</v>
+        <v>210.1561119725921</v>
       </c>
       <c r="H33" t="n">
-        <v>62.73675303640418</v>
+        <v>111.349581628341</v>
       </c>
       <c r="I33" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J33" t="n">
-        <v>76.79083931477354</v>
+        <v>76.79083931477361</v>
       </c>
       <c r="K33" t="n">
-        <v>178.9663359913588</v>
+        <v>178.9663359913589</v>
       </c>
       <c r="L33" t="n">
-        <v>362.6764416676407</v>
+        <v>362.6764416676408</v>
       </c>
       <c r="M33" t="n">
-        <v>596.4143381182391</v>
+        <v>596.4143381182392</v>
       </c>
       <c r="N33" t="n">
-        <v>850.7472260948146</v>
+        <v>850.7472260948148</v>
       </c>
       <c r="O33" t="n">
         <v>1061.19233543187</v>
@@ -6801,28 +6801,28 @@
         <v>1260.82286411429</v>
       </c>
       <c r="R33" t="n">
-        <v>1253.271972220804</v>
+        <v>1260.82286411429</v>
       </c>
       <c r="S33" t="n">
-        <v>1224.165366573558</v>
+        <v>1231.716258467044</v>
       </c>
       <c r="T33" t="n">
-        <v>1144.359629361689</v>
+        <v>1114.847711413666</v>
       </c>
       <c r="U33" t="n">
-        <v>971.910304945704</v>
+        <v>1003.026478670089</v>
       </c>
       <c r="V33" t="n">
-        <v>736.7581967139612</v>
+        <v>884.177555650151</v>
       </c>
       <c r="W33" t="n">
-        <v>482.5208399857596</v>
+        <v>746.2433841337537</v>
       </c>
       <c r="X33" t="n">
-        <v>390.9725249920313</v>
+        <v>654.6950691400251</v>
       </c>
       <c r="Y33" t="n">
-        <v>299.5154114388819</v>
+        <v>563.2379555868755</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.5256054147516</v>
+        <v>302.5256054147534</v>
       </c>
       <c r="C34" t="n">
-        <v>249.8926076986492</v>
+        <v>249.8926076986507</v>
       </c>
       <c r="D34" t="n">
-        <v>216.079153498118</v>
+        <v>216.0791534981193</v>
       </c>
       <c r="E34" t="n">
-        <v>184.4692451275294</v>
+        <v>184.4692451275304</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8824828414236</v>
+        <v>153.8824828414243</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7619364475901</v>
+        <v>101.7619364475907</v>
       </c>
       <c r="H34" t="n">
-        <v>65.43852314280628</v>
+        <v>65.43852314280659</v>
       </c>
       <c r="I34" t="n">
-        <v>62.73675303640418</v>
+        <v>62.73675303640425</v>
       </c>
       <c r="J34" t="n">
-        <v>171.8951109729082</v>
+        <v>138.5952320634119</v>
       </c>
       <c r="K34" t="n">
-        <v>407.782878513627</v>
+        <v>374.4829996041304</v>
       </c>
       <c r="L34" t="n">
-        <v>572.4368821690473</v>
+        <v>699.9869577856894</v>
       </c>
       <c r="M34" t="n">
-        <v>743.1033212708508</v>
+        <v>870.6533968874926</v>
       </c>
       <c r="N34" t="n">
-        <v>920.2796175560458</v>
+        <v>972.8399483678244</v>
       </c>
       <c r="O34" t="n">
-        <v>1075.580312752591</v>
+        <v>1124.879535784711</v>
       </c>
       <c r="P34" t="n">
-        <v>1203.066156777102</v>
+        <v>1138.376627983133</v>
       </c>
       <c r="Q34" t="n">
-        <v>1270.81181771489</v>
+        <v>1270.811817714894</v>
       </c>
       <c r="R34" t="n">
-        <v>1264.870485931083</v>
+        <v>1264.870485931086</v>
       </c>
       <c r="S34" t="n">
-        <v>1176.924553539312</v>
+        <v>1176.924553539315</v>
       </c>
       <c r="T34" t="n">
-        <v>1068.380935677299</v>
+        <v>1068.380935677302</v>
       </c>
       <c r="U34" t="n">
-        <v>895.5419324703637</v>
+        <v>895.5419324703668</v>
       </c>
       <c r="V34" t="n">
-        <v>757.1606294762813</v>
+        <v>757.1606294762842</v>
       </c>
       <c r="W34" t="n">
-        <v>584.0466446511252</v>
+        <v>584.0466446511277</v>
       </c>
       <c r="X34" t="n">
-        <v>472.3602789649124</v>
+        <v>472.3602789649146</v>
       </c>
       <c r="Y34" t="n">
-        <v>367.8708850331868</v>
+        <v>367.8708850331888</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>955.8582442291561</v>
+        <v>955.8582442291581</v>
       </c>
       <c r="C35" t="n">
-        <v>809.0750081497043</v>
+        <v>809.0750081497059</v>
       </c>
       <c r="D35" t="n">
-        <v>672.9885904039137</v>
+        <v>672.9885904039151</v>
       </c>
       <c r="E35" t="n">
-        <v>509.3796186666293</v>
+        <v>509.3796186666304</v>
       </c>
       <c r="F35" t="n">
-        <v>320.5729947379816</v>
+        <v>320.5729947379825</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0727137472082</v>
+        <v>126.0727137472086</v>
       </c>
       <c r="H35" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I35" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J35" t="n">
-        <v>307.1594010810903</v>
+        <v>89.40148790926358</v>
       </c>
       <c r="K35" t="n">
-        <v>440.6163099044365</v>
+        <v>222.8583967326098</v>
       </c>
       <c r="L35" t="n">
-        <v>643.0831682248637</v>
+        <v>425.325255053037</v>
       </c>
       <c r="M35" t="n">
-        <v>900.0359967375566</v>
+        <v>682.27808356573</v>
       </c>
       <c r="N35" t="n">
-        <v>1165.760399030329</v>
+        <v>948.0024858585025</v>
       </c>
       <c r="O35" t="n">
-        <v>1403.341155811021</v>
+        <v>1185.583242639194</v>
       </c>
       <c r="P35" t="n">
-        <v>1571.609834239315</v>
+        <v>1414.530141286254</v>
       </c>
       <c r="Q35" t="n">
-        <v>1649.799857421234</v>
+        <v>1710.47807764</v>
       </c>
       <c r="R35" t="n">
-        <v>1649.799857421234</v>
+        <v>1710.47807764</v>
       </c>
       <c r="S35" t="n">
-        <v>1710.478077639997</v>
+        <v>1710.47807764</v>
       </c>
       <c r="T35" t="n">
-        <v>1710.478077639997</v>
+        <v>1710.47807764</v>
       </c>
       <c r="U35" t="n">
-        <v>1678.998312839055</v>
+        <v>1678.998312839058</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.114706356444</v>
+        <v>1570.114706356447</v>
       </c>
       <c r="W35" t="n">
-        <v>1439.52533194729</v>
+        <v>1439.525331947293</v>
       </c>
       <c r="X35" t="n">
-        <v>1288.23885454717</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y35" t="n">
-        <v>1120.278803432318</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>663.3690134737487</v>
+        <v>375.3132154467251</v>
       </c>
       <c r="C36" t="n">
-        <v>488.9159841926217</v>
+        <v>200.8601861655981</v>
       </c>
       <c r="D36" t="n">
-        <v>339.9815745313705</v>
+        <v>51.92577650434683</v>
       </c>
       <c r="E36" t="n">
-        <v>180.744119525915</v>
+        <v>34.2095615528</v>
       </c>
       <c r="F36" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="G36" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="H36" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I36" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J36" t="n">
-        <v>48.26364783116929</v>
+        <v>48.26364783116936</v>
       </c>
       <c r="K36" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L36" t="n">
-        <v>334.1492501840365</v>
+        <v>334.1492501840366</v>
       </c>
       <c r="M36" t="n">
         <v>567.887146634635</v>
@@ -7047,19 +7047,19 @@
         <v>1232.295672630686</v>
       </c>
       <c r="U36" t="n">
-        <v>1226.350535536265</v>
+        <v>1004.171254675305</v>
       </c>
       <c r="V36" t="n">
-        <v>1213.377708165482</v>
+        <v>991.1984273045219</v>
       </c>
       <c r="W36" t="n">
-        <v>1181.31963229824</v>
+        <v>959.1403514372799</v>
       </c>
       <c r="X36" t="n">
-        <v>1039.344649258771</v>
+        <v>751.2888512317471</v>
       </c>
       <c r="Y36" t="n">
-        <v>831.5843504938168</v>
+        <v>543.5285524667931</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="C37" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="D37" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="E37" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="F37" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="G37" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="H37" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I37" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J37" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="K37" t="n">
-        <v>50.4322485862231</v>
+        <v>50.43224858622317</v>
       </c>
       <c r="L37" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M37" t="n">
-        <v>157.7751876912677</v>
+        <v>157.7751876912678</v>
       </c>
       <c r="N37" t="n">
-        <v>220.9627321503731</v>
+        <v>220.9627321503732</v>
       </c>
       <c r="O37" t="n">
-        <v>259.0135677411703</v>
+        <v>259.0135677411704</v>
       </c>
       <c r="P37" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="Q37" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="R37" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="S37" t="n">
-        <v>209.3933578814223</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="T37" t="n">
-        <v>206.7258356685649</v>
+        <v>269.8431377267346</v>
       </c>
       <c r="U37" t="n">
-        <v>139.7629281107853</v>
+        <v>202.8802301689547</v>
       </c>
       <c r="V37" t="n">
-        <v>107.2577207658582</v>
+        <v>170.3750228240274</v>
       </c>
       <c r="W37" t="n">
-        <v>40.01983158985743</v>
+        <v>40.01983158985774</v>
       </c>
       <c r="X37" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>955.8582442291564</v>
+        <v>955.8582442291581</v>
       </c>
       <c r="C38" t="n">
-        <v>809.0750081497047</v>
+        <v>809.0750081497063</v>
       </c>
       <c r="D38" t="n">
-        <v>672.9885904039141</v>
+        <v>672.9885904039154</v>
       </c>
       <c r="E38" t="n">
-        <v>509.3796186666299</v>
+        <v>509.3796186666309</v>
       </c>
       <c r="F38" t="n">
-        <v>320.5729947379822</v>
+        <v>320.572994737983</v>
       </c>
       <c r="G38" t="n">
-        <v>126.0727137472081</v>
+        <v>126.0727137472085</v>
       </c>
       <c r="H38" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I38" t="n">
-        <v>150.0811082176444</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J38" t="n">
-        <v>205.273034574108</v>
+        <v>89.40148790926358</v>
       </c>
       <c r="K38" t="n">
-        <v>338.7299433974542</v>
+        <v>418.5417895638269</v>
       </c>
       <c r="L38" t="n">
-        <v>541.1968017178815</v>
+        <v>621.0086478842541</v>
       </c>
       <c r="M38" t="n">
-        <v>798.1496302305743</v>
+        <v>877.9614763969469</v>
       </c>
       <c r="N38" t="n">
-        <v>1063.874032523347</v>
+        <v>1143.685878689719</v>
       </c>
       <c r="O38" t="n">
-        <v>1301.454789304039</v>
+        <v>1381.266635470411</v>
       </c>
       <c r="P38" t="n">
-        <v>1469.723467732332</v>
+        <v>1549.535313898705</v>
       </c>
       <c r="Q38" t="n">
-        <v>1547.913490914252</v>
+        <v>1627.725337080625</v>
       </c>
       <c r="R38" t="n">
-        <v>1627.725337080621</v>
+        <v>1627.725337080625</v>
       </c>
       <c r="S38" t="n">
-        <v>1701.494087242926</v>
+        <v>1701.494087242929</v>
       </c>
       <c r="T38" t="n">
-        <v>1710.478077639997</v>
+        <v>1710.47807764</v>
       </c>
       <c r="U38" t="n">
-        <v>1678.998312839055</v>
+        <v>1678.998312839058</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.114706356444</v>
+        <v>1570.114706356447</v>
       </c>
       <c r="W38" t="n">
-        <v>1439.52533194729</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X38" t="n">
-        <v>1288.23885454717</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y38" t="n">
-        <v>1120.278803432318</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>82.82239014473666</v>
+        <v>664.2538144368216</v>
       </c>
       <c r="C39" t="n">
-        <v>82.82239014473666</v>
+        <v>489.8007851556946</v>
       </c>
       <c r="D39" t="n">
-        <v>82.82239014473666</v>
+        <v>340.8663754944433</v>
       </c>
       <c r="E39" t="n">
-        <v>82.82239014473666</v>
+        <v>181.6289204889878</v>
       </c>
       <c r="F39" t="n">
-        <v>82.82239014473666</v>
+        <v>181.6289204889878</v>
       </c>
       <c r="G39" t="n">
-        <v>82.82239014473666</v>
+        <v>181.6289204889878</v>
       </c>
       <c r="H39" t="n">
-        <v>82.82239014473666</v>
+        <v>82.82239014473672</v>
       </c>
       <c r="I39" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J39" t="n">
-        <v>48.26364783116929</v>
+        <v>48.26364783116936</v>
       </c>
       <c r="K39" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L39" t="n">
-        <v>334.1492501840365</v>
+        <v>334.1492501840366</v>
       </c>
       <c r="M39" t="n">
         <v>567.887146634635</v>
@@ -7275,28 +7275,28 @@
         <v>1232.295672630686</v>
       </c>
       <c r="R39" t="n">
-        <v>1215.948072030549</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="S39" t="n">
-        <v>1215.948072030549</v>
+        <v>1086.885881771635</v>
       </c>
       <c r="T39" t="n">
-        <v>1215.948072030549</v>
+        <v>1086.885881771635</v>
       </c>
       <c r="U39" t="n">
-        <v>987.8236540751677</v>
+        <v>858.7614638162546</v>
       </c>
       <c r="V39" t="n">
-        <v>752.6715458434251</v>
+        <v>845.7886364454715</v>
       </c>
       <c r="W39" t="n">
-        <v>498.4341891152234</v>
+        <v>813.7305605782295</v>
       </c>
       <c r="X39" t="n">
-        <v>290.5826889096905</v>
+        <v>813.7305605782295</v>
       </c>
       <c r="Y39" t="n">
-        <v>82.82239014473666</v>
+        <v>664.2538144368216</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="C40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="D40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="E40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="F40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="G40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="H40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="K40" t="n">
-        <v>50.4322485862231</v>
+        <v>50.43224858622317</v>
       </c>
       <c r="L40" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M40" t="n">
-        <v>157.7751876912677</v>
+        <v>157.7751876912678</v>
       </c>
       <c r="N40" t="n">
-        <v>220.9627321503731</v>
+        <v>220.9627321503732</v>
       </c>
       <c r="O40" t="n">
-        <v>259.0135677411703</v>
+        <v>259.0135677411704</v>
       </c>
       <c r="P40" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="Q40" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="R40" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="S40" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="T40" t="n">
-        <v>206.7258356685646</v>
+        <v>269.8431377267347</v>
       </c>
       <c r="U40" t="n">
-        <v>139.762928110785</v>
+        <v>202.8802301689549</v>
       </c>
       <c r="V40" t="n">
-        <v>107.257720765858</v>
+        <v>170.3750228240277</v>
       </c>
       <c r="W40" t="n">
-        <v>40.01983158985734</v>
+        <v>103.1371336480267</v>
       </c>
       <c r="X40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.20956155279994</v>
+        <v>34.2095615528</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>955.8582442291552</v>
+        <v>955.8582442291579</v>
       </c>
       <c r="C41" t="n">
-        <v>809.0750081497034</v>
+        <v>809.0750081497059</v>
       </c>
       <c r="D41" t="n">
-        <v>672.9885904039129</v>
+        <v>672.9885904039152</v>
       </c>
       <c r="E41" t="n">
-        <v>509.3796186666289</v>
+        <v>509.3796186666307</v>
       </c>
       <c r="F41" t="n">
-        <v>320.5729947379814</v>
+        <v>320.5729947379828</v>
       </c>
       <c r="G41" t="n">
-        <v>126.0727137472081</v>
+        <v>126.0727137472086</v>
       </c>
       <c r="H41" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I41" t="n">
-        <v>150.0811082176444</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J41" t="n">
-        <v>205.273034574108</v>
+        <v>89.40148790926358</v>
       </c>
       <c r="K41" t="n">
-        <v>338.7299433974542</v>
+        <v>222.8583967326098</v>
       </c>
       <c r="L41" t="n">
-        <v>541.1968017178815</v>
+        <v>425.325255053037</v>
       </c>
       <c r="M41" t="n">
-        <v>798.1496302305743</v>
+        <v>774.9516495211144</v>
       </c>
       <c r="N41" t="n">
-        <v>1063.874032523347</v>
+        <v>1040.676051813887</v>
       </c>
       <c r="O41" t="n">
-        <v>1301.454789304039</v>
+        <v>1464.019376029787</v>
       </c>
       <c r="P41" t="n">
-        <v>1469.723467732332</v>
+        <v>1632.288054458081</v>
       </c>
       <c r="Q41" t="n">
-        <v>1547.913490914252</v>
+        <v>1710.47807764</v>
       </c>
       <c r="R41" t="n">
-        <v>1627.72533708062</v>
+        <v>1710.47807764</v>
       </c>
       <c r="S41" t="n">
-        <v>1701.494087242925</v>
+        <v>1710.47807764</v>
       </c>
       <c r="T41" t="n">
-        <v>1710.478077639996</v>
+        <v>1710.47807764</v>
       </c>
       <c r="U41" t="n">
-        <v>1678.998312839054</v>
+        <v>1678.998312839058</v>
       </c>
       <c r="V41" t="n">
-        <v>1570.114706356443</v>
+        <v>1570.114706356447</v>
       </c>
       <c r="W41" t="n">
-        <v>1439.525331947289</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X41" t="n">
-        <v>1288.238854547169</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y41" t="n">
-        <v>1120.278803432317</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>663.3690134737487</v>
+        <v>215.484442491669</v>
       </c>
       <c r="C42" t="n">
-        <v>488.9159841926217</v>
+        <v>41.03141321054196</v>
       </c>
       <c r="D42" t="n">
-        <v>339.9815745313705</v>
+        <v>41.03141321054196</v>
       </c>
       <c r="E42" t="n">
-        <v>180.744119525915</v>
+        <v>41.03141321054196</v>
       </c>
       <c r="F42" t="n">
-        <v>34.20956155279992</v>
+        <v>41.03141321054196</v>
       </c>
       <c r="G42" t="n">
-        <v>34.20956155279992</v>
+        <v>41.03141321054196</v>
       </c>
       <c r="H42" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I42" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J42" t="n">
-        <v>48.26364783116927</v>
+        <v>48.26364783116936</v>
       </c>
       <c r="K42" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L42" t="n">
-        <v>334.1492501840365</v>
+        <v>334.1492501840366</v>
       </c>
       <c r="M42" t="n">
         <v>567.887146634635</v>
@@ -7515,25 +7515,25 @@
         <v>1232.295672630686</v>
       </c>
       <c r="S42" t="n">
-        <v>1232.295672630686</v>
+        <v>1086.885881771635</v>
       </c>
       <c r="T42" t="n">
-        <v>1232.295672630686</v>
+        <v>1086.885881771635</v>
       </c>
       <c r="U42" t="n">
-        <v>1226.350535536265</v>
+        <v>858.7614638162546</v>
       </c>
       <c r="V42" t="n">
-        <v>1213.377708165482</v>
+        <v>623.6093555845118</v>
       </c>
       <c r="W42" t="n">
-        <v>1181.31963229824</v>
+        <v>591.5512797172698</v>
       </c>
       <c r="X42" t="n">
-        <v>1039.344649258771</v>
+        <v>383.699779511737</v>
       </c>
       <c r="Y42" t="n">
-        <v>831.5843504938168</v>
+        <v>383.699779511737</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="C43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="D43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="E43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="F43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="G43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="H43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="K43" t="n">
-        <v>50.43224858622308</v>
+        <v>50.43224858622317</v>
       </c>
       <c r="L43" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M43" t="n">
-        <v>157.7751876912677</v>
+        <v>157.7751876912678</v>
       </c>
       <c r="N43" t="n">
-        <v>220.9627321503731</v>
+        <v>220.9627321503732</v>
       </c>
       <c r="O43" t="n">
-        <v>259.0135677411703</v>
+        <v>259.0135677411704</v>
       </c>
       <c r="P43" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="Q43" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="R43" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="S43" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="T43" t="n">
-        <v>269.8431377267349</v>
+        <v>269.8431377267346</v>
       </c>
       <c r="U43" t="n">
-        <v>139.7629281107849</v>
+        <v>202.8802301689547</v>
       </c>
       <c r="V43" t="n">
-        <v>107.257720765858</v>
+        <v>170.3750228240274</v>
       </c>
       <c r="W43" t="n">
-        <v>40.01983158985732</v>
+        <v>103.1371336480263</v>
       </c>
       <c r="X43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>955.8582442291554</v>
+        <v>955.8582442291577</v>
       </c>
       <c r="C44" t="n">
-        <v>809.0750081497038</v>
+        <v>809.0750081497058</v>
       </c>
       <c r="D44" t="n">
-        <v>672.9885904039131</v>
+        <v>672.9885904039149</v>
       </c>
       <c r="E44" t="n">
-        <v>509.3796186666288</v>
+        <v>509.3796186666304</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5729947379812</v>
+        <v>320.5729947379825</v>
       </c>
       <c r="G44" t="n">
-        <v>126.0727137472082</v>
+        <v>126.0727137472086</v>
       </c>
       <c r="H44" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I44" t="n">
-        <v>52.06174544571171</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J44" t="n">
-        <v>107.2536718021753</v>
+        <v>89.40148790926358</v>
       </c>
       <c r="K44" t="n">
-        <v>240.7105806255215</v>
+        <v>283.5366169513761</v>
       </c>
       <c r="L44" t="n">
-        <v>443.1774389459487</v>
+        <v>486.0034752718033</v>
       </c>
       <c r="M44" t="n">
-        <v>700.1302674586416</v>
+        <v>742.9563037844962</v>
       </c>
       <c r="N44" t="n">
-        <v>965.8546697514141</v>
+        <v>1008.680706077269</v>
       </c>
       <c r="O44" t="n">
-        <v>1203.435426532106</v>
+        <v>1246.26146285796</v>
       </c>
       <c r="P44" t="n">
-        <v>1371.7041049604</v>
+        <v>1414.530141286254</v>
       </c>
       <c r="Q44" t="n">
-        <v>1449.894128142319</v>
+        <v>1710.47807764</v>
       </c>
       <c r="R44" t="n">
-        <v>1627.72533708062</v>
+        <v>1710.47807764</v>
       </c>
       <c r="S44" t="n">
-        <v>1701.494087242925</v>
+        <v>1710.47807764</v>
       </c>
       <c r="T44" t="n">
-        <v>1710.478077639996</v>
+        <v>1710.47807764</v>
       </c>
       <c r="U44" t="n">
-        <v>1678.998312839054</v>
+        <v>1678.998312839058</v>
       </c>
       <c r="V44" t="n">
-        <v>1570.114706356443</v>
+        <v>1570.114706356447</v>
       </c>
       <c r="W44" t="n">
-        <v>1439.525331947289</v>
+        <v>1439.525331947292</v>
       </c>
       <c r="X44" t="n">
-        <v>1288.238854547169</v>
+        <v>1288.238854547172</v>
       </c>
       <c r="Y44" t="n">
-        <v>1120.278803432317</v>
+        <v>1120.27880343232</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>357.5970004951782</v>
+        <v>429.4765276347945</v>
       </c>
       <c r="C45" t="n">
-        <v>183.1439712140512</v>
+        <v>429.4765276347945</v>
       </c>
       <c r="D45" t="n">
-        <v>34.20956155279992</v>
+        <v>429.4765276347945</v>
       </c>
       <c r="E45" t="n">
-        <v>34.20956155279992</v>
+        <v>270.239072629339</v>
       </c>
       <c r="F45" t="n">
-        <v>34.20956155279992</v>
+        <v>270.239072629339</v>
       </c>
       <c r="G45" t="n">
-        <v>34.20956155279992</v>
+        <v>133.0160918970511</v>
       </c>
       <c r="H45" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I45" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J45" t="n">
-        <v>48.26364783116927</v>
+        <v>48.26364783116936</v>
       </c>
       <c r="K45" t="n">
-        <v>150.4391445077546</v>
+        <v>150.4391445077547</v>
       </c>
       <c r="L45" t="n">
-        <v>334.1492501840365</v>
+        <v>334.1492501840366</v>
       </c>
       <c r="M45" t="n">
         <v>567.887146634635</v>
@@ -7749,28 +7749,28 @@
         <v>1232.295672630686</v>
       </c>
       <c r="R45" t="n">
-        <v>1178.7632960793</v>
+        <v>1232.295672630686</v>
       </c>
       <c r="S45" t="n">
-        <v>1033.353505220249</v>
+        <v>1086.885881771635</v>
       </c>
       <c r="T45" t="n">
-        <v>1033.353505220249</v>
+        <v>1086.885881771635</v>
       </c>
       <c r="U45" t="n">
-        <v>805.2290872648683</v>
+        <v>1080.940744677214</v>
       </c>
       <c r="V45" t="n">
-        <v>792.2562598940855</v>
+        <v>1059.780721588597</v>
       </c>
       <c r="W45" t="n">
-        <v>538.0189031658838</v>
+        <v>805.5433648603954</v>
       </c>
       <c r="X45" t="n">
-        <v>538.0189031658838</v>
+        <v>597.6918646548626</v>
       </c>
       <c r="Y45" t="n">
-        <v>525.8123375152463</v>
+        <v>597.6918646548626</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="C46" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="D46" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="E46" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="F46" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="G46" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="H46" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="I46" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="J46" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="K46" t="n">
-        <v>50.43224858622308</v>
+        <v>50.43224858622317</v>
       </c>
       <c r="L46" t="n">
-        <v>101.0975004155538</v>
+        <v>101.0975004155539</v>
       </c>
       <c r="M46" t="n">
-        <v>157.7751876912677</v>
+        <v>157.7751876912678</v>
       </c>
       <c r="N46" t="n">
-        <v>220.9627321503731</v>
+        <v>220.9627321503732</v>
       </c>
       <c r="O46" t="n">
-        <v>259.0135677411703</v>
+        <v>259.0135677411704</v>
       </c>
       <c r="P46" t="n">
-        <v>272.5106599395921</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="Q46" t="n">
-        <v>225.3286469936662</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="R46" t="n">
-        <v>209.3933578814219</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="S46" t="n">
-        <v>209.3933578814219</v>
+        <v>272.5106599395922</v>
       </c>
       <c r="T46" t="n">
-        <v>206.7258356685647</v>
+        <v>269.8431377267346</v>
       </c>
       <c r="U46" t="n">
-        <v>139.762928110785</v>
+        <v>202.8802301689547</v>
       </c>
       <c r="V46" t="n">
-        <v>107.2577207658581</v>
+        <v>107.2577207658588</v>
       </c>
       <c r="W46" t="n">
-        <v>40.01983158985735</v>
+        <v>40.01983158985774</v>
       </c>
       <c r="X46" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.20956155279992</v>
+        <v>34.2095615528</v>
       </c>
     </row>
   </sheetData>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>164.3198080579048</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>116.3397519665237</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10039,19 +10039,19 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>142.1030892123581</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>37.95308740378297</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>25.7970983528879</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,25 +10267,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>48.21205749716034</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>53.12892546148844</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>126.7724398264847</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>39.85832340704609</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,13 +10504,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10519,13 +10519,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3.294048262281223</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.945525966093</v>
+        <v>254.9455259660929</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>237.4845760736198</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>226.8947259232953</v>
       </c>
       <c r="E11" t="n">
-        <v>254.1420543748742</v>
+        <v>254.1420543748741</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>102.7509894388398</v>
+        <v>284.7244505358284</v>
       </c>
       <c r="H11" t="n">
-        <v>183.1136930274268</v>
+        <v>183.1136930274267</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.65528330212906</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>83.09443458014344</v>
+        <v>41.12653229736925</v>
       </c>
       <c r="U11" t="n">
-        <v>123.3341395078954</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>221.4526530200254</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.9427849810814</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>254.9455259660929</v>
       </c>
       <c r="C14" t="n">
-        <v>94.08662286561308</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>226.8947259232953</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>254.1420543748741</v>
       </c>
       <c r="F14" t="n">
-        <v>279.0877300443238</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>284.7244505358285</v>
+        <v>284.7244505358284</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>17.65528330212903</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>83.09443458014341</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>199.9639427727472</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.9427849810814</v>
+        <v>3.311235667003331</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>258.4496229586659</v>
       </c>
     </row>
     <row r="15">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1339586.962587233</v>
+        <v>1339586.962587234</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1339586.962587233</v>
+        <v>1339586.962587234</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143373.3592754818</v>
+        <v>143373.3592754817</v>
       </c>
       <c r="C2" t="n">
         <v>143373.3592754818</v>
@@ -26320,13 +26320,13 @@
         <v>143373.3592754817</v>
       </c>
       <c r="E2" t="n">
-        <v>123032.0381205444</v>
+        <v>123032.0381205445</v>
       </c>
       <c r="F2" t="n">
-        <v>123032.0381205443</v>
+        <v>123032.0381205445</v>
       </c>
       <c r="G2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="H2" t="n">
         <v>143682.3097262496</v>
@@ -26341,19 +26341,19 @@
         <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>766266.5351224332</v>
+        <v>766266.5351224334</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>92112.12268774906</v>
+        <v>92112.122687749</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111884.0815365099</v>
+        <v>111884.08153651</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92112.12268774907</v>
+        <v>92112.12268774898</v>
       </c>
       <c r="M3" t="n">
         <v>83853.86775413102</v>
@@ -26439,7 +26439,7 @@
         <v>228781.8774821127</v>
       </c>
       <c r="J4" t="n">
-        <v>231159.1105944614</v>
+        <v>231159.1105944613</v>
       </c>
       <c r="K4" t="n">
         <v>231159.1105944614</v>
@@ -26451,7 +26451,7 @@
         <v>229069.74047253</v>
       </c>
       <c r="N4" t="n">
-        <v>229069.74047253</v>
+        <v>229069.7404725301</v>
       </c>
       <c r="O4" t="n">
         <v>229069.74047253</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>47553.01820892904</v>
+      </c>
+      <c r="F5" t="n">
         <v>47553.01820892902</v>
-      </c>
-      <c r="F5" t="n">
-        <v>47553.01820892903</v>
       </c>
       <c r="G5" t="n">
         <v>57232.73576172449</v>
@@ -26491,25 +26491,25 @@
         <v>57232.73576172449</v>
       </c>
       <c r="J5" t="n">
-        <v>72488.96662948877</v>
+        <v>72488.9666294888</v>
       </c>
       <c r="K5" t="n">
-        <v>72488.96662948877</v>
+        <v>72488.96662948882</v>
       </c>
       <c r="L5" t="n">
-        <v>72488.96662948877</v>
+        <v>72488.96662948882</v>
       </c>
       <c r="M5" t="n">
-        <v>59620.18961222711</v>
+        <v>59620.18961222714</v>
       </c>
       <c r="N5" t="n">
-        <v>59620.18961222712</v>
+        <v>59620.18961222715</v>
       </c>
       <c r="O5" t="n">
-        <v>59620.18961222711</v>
+        <v>59620.18961222714</v>
       </c>
       <c r="P5" t="n">
-        <v>59620.18961222711</v>
+        <v>59620.18961222714</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357870.2006562494</v>
+        <v>-357874.6142341176</v>
       </c>
       <c r="C6" t="n">
-        <v>-357870.2006562494</v>
+        <v>-357874.6142341176</v>
       </c>
       <c r="D6" t="n">
-        <v>-357870.2006562495</v>
+        <v>-357874.6142341176</v>
       </c>
       <c r="E6" t="n">
-        <v>-852461.8369840214</v>
+        <v>-852756.8408641029</v>
       </c>
       <c r="F6" t="n">
-        <v>-86195.30186158829</v>
+        <v>-86490.30574166968</v>
       </c>
       <c r="G6" t="n">
         <v>-234444.4262053366</v>
@@ -26543,19 +26543,19 @@
         <v>-142332.3035175876</v>
       </c>
       <c r="J6" t="n">
-        <v>-271849.8490342104</v>
+        <v>-271849.8490342105</v>
       </c>
       <c r="K6" t="n">
-        <v>-159965.7674977004</v>
+        <v>-159965.7674977005</v>
       </c>
       <c r="L6" t="n">
-        <v>-252077.8901854494</v>
+        <v>-252077.8901854495</v>
       </c>
       <c r="M6" t="n">
-        <v>-228861.4881126384</v>
+        <v>-228861.4881126385</v>
       </c>
       <c r="N6" t="n">
-        <v>-145007.6203585075</v>
+        <v>-145007.6203585076</v>
       </c>
       <c r="O6" t="n">
         <v>-145007.6203585074</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G2" t="n">
         <v>242.928469057074</v>
@@ -26707,25 +26707,25 @@
         <v>242.928469057074</v>
       </c>
       <c r="J2" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K2" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="N2" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="O2" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="P2" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>356.5898935450531</v>
+      </c>
+      <c r="F4" t="n">
         <v>356.5898935450529</v>
       </c>
-      <c r="F4" t="n">
-        <v>356.5898935450531</v>
-      </c>
       <c r="G4" t="n">
+        <v>356.5898935450529</v>
+      </c>
+      <c r="H4" t="n">
         <v>356.5898935450528</v>
       </c>
-      <c r="H4" t="n">
-        <v>356.5898935450527</v>
-      </c>
       <c r="I4" t="n">
-        <v>356.5898935450527</v>
+        <v>356.5898935450529</v>
       </c>
       <c r="J4" t="n">
-        <v>784.2094129550522</v>
+        <v>784.2094129550528</v>
       </c>
       <c r="K4" t="n">
-        <v>784.2094129550522</v>
+        <v>784.2094129550532</v>
       </c>
       <c r="L4" t="n">
-        <v>784.2094129550522</v>
+        <v>784.2094129550532</v>
       </c>
       <c r="M4" t="n">
-        <v>427.6195194099993</v>
+        <v>427.6195194100001</v>
       </c>
       <c r="N4" t="n">
-        <v>427.6195194099993</v>
+        <v>427.6195194100001</v>
       </c>
       <c r="O4" t="n">
-        <v>427.619519409999</v>
+        <v>427.6195194100001</v>
       </c>
       <c r="P4" t="n">
-        <v>427.619519409999</v>
+        <v>427.6195194100001</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
         <v>104.8173346926638</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450531</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.6195194099995</v>
+        <v>427.61951941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1401533596863</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>356.5898935450529</v>
+        <v>356.5898935450531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I11" t="n">
         <v>102.9155217242246</v>
@@ -28138,25 +28138,25 @@
         <v>40.33000427628923</v>
       </c>
       <c r="S11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.7883156973876</v>
+        <v>18.97980129324642</v>
       </c>
       <c r="C12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G12" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U12" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W12" t="n">
-        <v>71.97685407912019</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y12" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I13" t="n">
-        <v>117.8149057650245</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="J13" t="n">
-        <v>38.51542706977951</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="K13" t="n">
-        <v>63.38371400911188</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="L13" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="N13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="O13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="P13" t="n">
-        <v>127.7883156973876</v>
+        <v>91.92573114652545</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="R13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="S13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I14" t="n">
         <v>102.9155217242246</v>
@@ -28375,25 +28375,25 @@
         <v>40.33000427628923</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F15" t="n">
-        <v>127.7883156973876</v>
+        <v>67.10650159926392</v>
       </c>
       <c r="G15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H15" t="n">
-        <v>18.97980129324752</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,22 +28454,22 @@
         <v>52.99705278587241</v>
       </c>
       <c r="S15" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V15" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="D16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="F16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="H16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="I16" t="n">
-        <v>117.8149057650245</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="J16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="L16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="M16" t="n">
-        <v>108.6653849506224</v>
+        <v>91.92573114652546</v>
       </c>
       <c r="N16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="O16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="P16" t="n">
-        <v>127.7883156973876</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="R16" t="n">
-        <v>121.0220718256556</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="S16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="T16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="X16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.7883156973876</v>
+        <v>127.7883156973877</v>
       </c>
     </row>
     <row r="17">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28652,16 +28652,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H18" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.12670030601735</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1478331994369</v>
+        <v>43.27863863116673</v>
       </c>
       <c r="U18" t="n">
         <v>225.8431737758271</v>
@@ -28703,13 +28703,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>60.67347002272356</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28776,13 +28776,13 @@
         <v>222.598335043079</v>
       </c>
       <c r="U19" t="n">
-        <v>103.136382677899</v>
+        <v>242.928469057074</v>
       </c>
       <c r="V19" t="n">
         <v>242.928469057074</v>
       </c>
       <c r="W19" t="n">
-        <v>242.928469057074</v>
+        <v>103.136382677899</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28819,7 +28819,7 @@
         <v>242.928469057074</v>
       </c>
       <c r="I20" t="n">
-        <v>102.9155217242236</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28889,16 +28889,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.850750924965</v>
+        <v>120.4312522740919</v>
       </c>
       <c r="H21" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>52.99705278587241</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>143.9556929504599</v>
@@ -28934,7 +28934,7 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8431737758271</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -28943,7 +28943,7 @@
         <v>242.928469057074</v>
       </c>
       <c r="X21" t="n">
-        <v>71.64468647514454</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>202.20662642754</v>
       </c>
       <c r="T22" t="n">
-        <v>129.5164414803707</v>
+        <v>129.5164414803708</v>
       </c>
       <c r="U22" t="n">
         <v>242.928469057074</v>
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>36.8129281917366</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>143.9556929504599</v>
@@ -29174,13 +29174,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.7014511988313</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>242.928469057074</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>26.94740791040658</v>
+        <v>73.65760072687331</v>
       </c>
       <c r="H25" t="n">
         <v>151.1003325314225</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.71019281646672</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>121.0220718256556</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J26" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N26" t="n">
-        <v>97.21843184855915</v>
+        <v>103.2924433733639</v>
       </c>
       <c r="O26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="R26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E27" t="n">
-        <v>115.1401533596865</v>
+        <v>47.64295962945276</v>
       </c>
       <c r="F27" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H27" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T27" t="n">
-        <v>93.11929576143464</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J28" t="n">
-        <v>86.72748456693988</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K28" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>115.1401533596865</v>
+        <v>46.95068117630277</v>
       </c>
       <c r="M28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N28" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P28" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I29" t="n">
-        <v>115.1401533596865</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q29" t="n">
-        <v>111.7547305914216</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="R29" t="n">
-        <v>115.1401533596865</v>
+        <v>14.53290592340133</v>
       </c>
       <c r="S29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y29" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D30" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F30" t="n">
-        <v>115.1401533596865</v>
+        <v>47.64295962945278</v>
       </c>
       <c r="G30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H30" t="n">
         <v>97.81846504080859</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>48.12670030601735</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.475382974551593</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S30" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U30" t="n">
-        <v>85.64391278688302</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y30" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J31" t="n">
-        <v>38.51542706977951</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q31" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K32" t="n">
-        <v>88.65179804170148</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>115.1401533596865</v>
+        <v>1.424288010197276</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Q32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="R32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="33">
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C33" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H33" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>38.00095315743243</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T33" t="n">
-        <v>115.1401533596865</v>
+        <v>78.44797161659262</v>
       </c>
       <c r="U33" t="n">
-        <v>55.11834260400229</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y33" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="C34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="D34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="E34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="F34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="G34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="H34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="J34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="K34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="L34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="M34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="N34" t="n">
-        <v>115.1401533596865</v>
+        <v>39.39293638507716</v>
       </c>
       <c r="O34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="P34" t="n">
-        <v>115.1401533596865</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="R34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="S34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="T34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="V34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="W34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="X34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.1401533596865</v>
+        <v>115.1401533596862</v>
       </c>
     </row>
     <row r="35">
@@ -29983,31 +29983,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="C35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="D35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="E35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="F35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="G35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="H35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="I35" t="n">
         <v>102.9155217242246</v>
       </c>
       <c r="J35" t="n">
-        <v>219.9574880523502</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>61.29113153410742</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="R35" t="n">
         <v>40.33000427628923</v>
       </c>
       <c r="S35" t="n">
-        <v>206.7347305336205</v>
+        <v>145.4435989995167</v>
       </c>
       <c r="T35" t="n">
         <v>210.882750277531</v>
       </c>
       <c r="U35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
     </row>
     <row r="36">
@@ -30071,10 +30071,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>140.1060276533696</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>135.850750924965</v>
@@ -30119,16 +30119,16 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U36" t="n">
-        <v>219.9574880523502</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W36" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X36" t="n">
-        <v>65.21775199440253</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30192,22 +30192,22 @@
         <v>121.0220718256556</v>
       </c>
       <c r="S37" t="n">
-        <v>139.7204973899518</v>
+        <v>202.20662642754</v>
       </c>
       <c r="T37" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="U37" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V37" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W37" t="n">
-        <v>219.9574880523502</v>
+        <v>157.4713590147631</v>
       </c>
       <c r="X37" t="n">
-        <v>219.9574880523502</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="C38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="D38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="E38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="F38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="G38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="H38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="I38" t="n">
-        <v>219.9574880523503</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>197.6599927588051</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>120.9480307069649</v>
+        <v>40.33000427628923</v>
       </c>
       <c r="S38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="Y38" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
     </row>
     <row r="39">
@@ -30302,13 +30302,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -30317,7 +30317,7 @@
         <v>135.850750924965</v>
       </c>
       <c r="H39" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>36.8129281917366</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S39" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>194.1478331994369</v>
@@ -30359,16 +30359,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>57.7007170973105</v>
       </c>
     </row>
     <row r="40">
@@ -30432,19 +30432,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T40" t="n">
-        <v>157.4713590147617</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="U40" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="V40" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="W40" t="n">
-        <v>219.9574880523503</v>
+        <v>219.9574880523501</v>
       </c>
       <c r="X40" t="n">
-        <v>219.9574880523503</v>
+        <v>157.4713590147627</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="C41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="D41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="E41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="F41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="G41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="H41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="I41" t="n">
-        <v>219.9574880523503</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30490,13 +30490,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>93.60966258119646</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>187.638957005261</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>120.9480307069638</v>
+        <v>40.33000427628923</v>
       </c>
       <c r="S41" t="n">
-        <v>219.9574880523503</v>
+        <v>145.4435989995167</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9574880523503</v>
+        <v>210.882750277531</v>
       </c>
       <c r="U41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y41" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
     </row>
     <row r="42">
@@ -30542,19 +30542,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>135.850750924965</v>
       </c>
       <c r="H42" t="n">
-        <v>97.81846504080859</v>
+        <v>91.06483189964406</v>
       </c>
       <c r="I42" t="n">
         <v>48.12670030601735</v>
@@ -30587,25 +30587,25 @@
         <v>52.99705278587241</v>
       </c>
       <c r="S42" t="n">
-        <v>143.9556929504599</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>194.1478331994369</v>
       </c>
       <c r="U42" t="n">
-        <v>219.9574880523503</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>219.9574880523503</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X42" t="n">
-        <v>65.21775199440253</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -30669,19 +30669,19 @@
         <v>202.20662642754</v>
       </c>
       <c r="T43" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4713590147617</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V43" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W43" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X43" t="n">
-        <v>219.9574880523503</v>
+        <v>157.4713590147631</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,34 +30694,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="C44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="D44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="E44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="F44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="G44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="H44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="I44" t="n">
-        <v>120.9480307069637</v>
+        <v>102.9155217242246</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>61.29113153410739</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="R44" t="n">
-        <v>219.9574880523503</v>
+        <v>40.33000427628923</v>
       </c>
       <c r="S44" t="n">
-        <v>219.9574880523503</v>
+        <v>145.4435989995167</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9574880523503</v>
+        <v>210.882750277531</v>
       </c>
       <c r="U44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="W44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y44" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
     </row>
     <row r="45">
@@ -30776,22 +30776,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.850750924965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>97.81846504080859</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>48.12670030601735</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>52.99705278587241</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30830,19 +30830,19 @@
         <v>194.1478331994369</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V45" t="n">
-        <v>219.9574880523503</v>
+        <v>211.8521642916945</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>193.5981957831733</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30897,28 +30897,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>46.71019281646672</v>
       </c>
       <c r="R46" t="n">
-        <v>105.2461356045338</v>
+        <v>121.0220718256556</v>
       </c>
       <c r="S46" t="n">
         <v>202.20662642754</v>
       </c>
       <c r="T46" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="U46" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="V46" t="n">
-        <v>219.9574880523503</v>
+        <v>157.4713590147631</v>
       </c>
       <c r="W46" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="X46" t="n">
-        <v>219.9574880523503</v>
+        <v>219.95748805235</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -35562,34 +35562,34 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.973409932363182</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>89.27288862760821</v>
       </c>
       <c r="K13" t="n">
-        <v>79.77026656812518</v>
+        <v>144.174868256401</v>
       </c>
       <c r="L13" t="n">
-        <v>178.9653377472166</v>
+        <v>51.17702204982902</v>
       </c>
       <c r="M13" t="n">
-        <v>185.0385048647753</v>
+        <v>185.0385048647755</v>
       </c>
       <c r="N13" t="n">
-        <v>191.6141181813325</v>
+        <v>191.6141181813326</v>
       </c>
       <c r="O13" t="n">
-        <v>166.2235031628393</v>
+        <v>166.2235031628394</v>
       </c>
       <c r="P13" t="n">
-        <v>141.4217421604399</v>
+        <v>105.5591576095778</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.07812288092089</v>
+        <v>81.078122880921</v>
       </c>
       <c r="R13" t="n">
-        <v>6.76624387173203</v>
+        <v>6.766243871732144</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35799,34 +35799,34 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.973409932363182</v>
       </c>
       <c r="J16" t="n">
-        <v>89.27288862760813</v>
+        <v>89.27288862760821</v>
       </c>
       <c r="K16" t="n">
-        <v>16.3865525590133</v>
+        <v>144.174868256401</v>
       </c>
       <c r="L16" t="n">
         <v>178.9653377472167</v>
       </c>
       <c r="M16" t="n">
-        <v>165.9155741180102</v>
+        <v>149.1759203139132</v>
       </c>
       <c r="N16" t="n">
-        <v>191.6141181813325</v>
+        <v>191.6141181813326</v>
       </c>
       <c r="O16" t="n">
         <v>166.2235031628394</v>
       </c>
       <c r="P16" t="n">
-        <v>141.42174216044</v>
+        <v>13.63342646305233</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.07812288092092</v>
+        <v>81.078122880921</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.766243871732144</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.74942056208442</v>
+        <v>55.74942056208434</v>
       </c>
       <c r="K23" t="n">
         <v>134.8049584074204</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12.22463163546188</v>
+        <v>12.22463163546166</v>
       </c>
       <c r="J26" t="n">
-        <v>339.9861890938446</v>
+        <v>55.74942056208442</v>
       </c>
       <c r="K26" t="n">
-        <v>134.8049584074204</v>
+        <v>249.9451117671067</v>
       </c>
       <c r="L26" t="n">
-        <v>319.6521314611281</v>
+        <v>737.3133460115782</v>
       </c>
       <c r="M26" t="n">
-        <v>374.6884649886691</v>
+        <v>374.6884649886689</v>
       </c>
       <c r="N26" t="n">
-        <v>529.9467270708807</v>
+        <v>371.7009305377807</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1207157644255</v>
+        <v>355.1207157644254</v>
       </c>
       <c r="P26" t="n">
-        <v>606.9072235799507</v>
+        <v>401.4482673749915</v>
       </c>
       <c r="Q26" t="n">
-        <v>291.294812055783</v>
+        <v>406.4349654154692</v>
       </c>
       <c r="R26" t="n">
-        <v>140.5265689563797</v>
+        <v>140.5265689563794</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>48.21205749716037</v>
+        <v>110.2609676126301</v>
       </c>
       <c r="K28" t="n">
-        <v>238.2704722633523</v>
+        <v>123.1303189036658</v>
       </c>
       <c r="L28" t="n">
-        <v>166.3171754095155</v>
+        <v>98.12770322613179</v>
       </c>
       <c r="M28" t="n">
-        <v>172.3903425270742</v>
+        <v>350.9000034365196</v>
       </c>
       <c r="N28" t="n">
-        <v>178.9659558436313</v>
+        <v>235.6435193284066</v>
       </c>
       <c r="O28" t="n">
-        <v>153.5753408251382</v>
+        <v>153.575340825138</v>
       </c>
       <c r="P28" t="n">
-        <v>128.7735798227388</v>
+        <v>148.6399897770934</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.7729189209712</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>12.22463163546188</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>339.9861890938446</v>
+        <v>170.8895739217706</v>
       </c>
       <c r="K29" t="n">
-        <v>574.0905243382716</v>
+        <v>249.9451117671067</v>
       </c>
       <c r="L29" t="n">
-        <v>319.6521314611281</v>
+        <v>737.3133460115782</v>
       </c>
       <c r="M29" t="n">
-        <v>259.5483116289827</v>
+        <v>374.6884649886689</v>
       </c>
       <c r="N29" t="n">
-        <v>383.5486405241032</v>
+        <v>525.6517297364611</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1207157644255</v>
+        <v>355.1207157644254</v>
       </c>
       <c r="P29" t="n">
-        <v>491.7670702202643</v>
+        <v>285.1085154084678</v>
       </c>
       <c r="Q29" t="n">
-        <v>228.6876393910829</v>
+        <v>406.4349654154692</v>
       </c>
       <c r="R29" t="n">
-        <v>140.5265689563797</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>110.2609676126301</v>
       </c>
       <c r="K31" t="n">
-        <v>238.2704722633523</v>
+        <v>123.1303189036658</v>
       </c>
       <c r="L31" t="n">
-        <v>214.5292329066758</v>
+        <v>213.6517235913834</v>
       </c>
       <c r="M31" t="n">
-        <v>172.3903425270742</v>
+        <v>57.25018916738776</v>
       </c>
       <c r="N31" t="n">
-        <v>178.9659558436313</v>
+        <v>116.9547279454333</v>
       </c>
       <c r="O31" t="n">
-        <v>153.5753408251382</v>
+        <v>316.6170071910204</v>
       </c>
       <c r="P31" t="n">
-        <v>128.7735798227388</v>
+        <v>263.7801431367797</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.7729189209712</v>
+        <v>18.63276556128474</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>12.22463163546189</v>
+        <v>12.22463163546165</v>
       </c>
       <c r="J32" t="n">
-        <v>339.9861890938446</v>
+        <v>339.9861890938444</v>
       </c>
       <c r="K32" t="n">
-        <v>547.6021690202866</v>
+        <v>458.9503709785852</v>
       </c>
       <c r="L32" t="n">
-        <v>319.6521314611281</v>
+        <v>205.9362661116389</v>
       </c>
       <c r="M32" t="n">
-        <v>259.5483116289827</v>
+        <v>374.6884649886689</v>
       </c>
       <c r="N32" t="n">
-        <v>383.5486405241032</v>
+        <v>383.548640524103</v>
       </c>
       <c r="O32" t="n">
-        <v>366.7530022312238</v>
+        <v>735.9208970271707</v>
       </c>
       <c r="P32" t="n">
-        <v>606.9072235799507</v>
+        <v>285.1085154084678</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.1199747555648</v>
+        <v>194.1199747555645</v>
       </c>
       <c r="R32" t="n">
-        <v>74.81014908339723</v>
+        <v>114.6684724904431</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>110.2609676126303</v>
+        <v>76.62472628990672</v>
       </c>
       <c r="K34" t="n">
-        <v>238.2704722633523</v>
+        <v>238.270472263352</v>
       </c>
       <c r="L34" t="n">
-        <v>166.3171754095155</v>
+        <v>328.7918769510696</v>
       </c>
       <c r="M34" t="n">
-        <v>172.3903425270742</v>
+        <v>172.390342527074</v>
       </c>
       <c r="N34" t="n">
-        <v>178.9659558436313</v>
+        <v>103.218738869022</v>
       </c>
       <c r="O34" t="n">
-        <v>156.8693890874194</v>
+        <v>153.575340825138</v>
       </c>
       <c r="P34" t="n">
-        <v>128.7735798227388</v>
+        <v>13.63342646305233</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.42996054321975</v>
+        <v>133.772918920971</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>275.7069086144347</v>
+        <v>55.74942056208442</v>
       </c>
       <c r="K35" t="n">
         <v>134.8049584074204</v>
@@ -37321,16 +37321,16 @@
         <v>239.9805624047391</v>
       </c>
       <c r="P35" t="n">
-        <v>169.9683620487816</v>
+        <v>231.259493582889</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.9798213958783</v>
+        <v>298.9373094482283</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>61.29113153410385</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>117.0419663281258</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>55.74942056208442</v>
       </c>
       <c r="K38" t="n">
-        <v>134.8049584074204</v>
+        <v>332.4649511662255</v>
       </c>
       <c r="L38" t="n">
         <v>204.5119781014416</v>
@@ -37564,13 +37564,13 @@
         <v>78.9798213958783</v>
       </c>
       <c r="R38" t="n">
-        <v>80.61802643067568</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>74.51388905283366</v>
+        <v>74.51388905283341</v>
       </c>
       <c r="T38" t="n">
-        <v>9.074737774819287</v>
+        <v>9.074737774819031</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>117.0419663281258</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>55.74942056208442</v>
@@ -37786,13 +37786,13 @@
         <v>204.5119781014416</v>
       </c>
       <c r="M41" t="n">
-        <v>259.5483116289827</v>
+        <v>353.1579742101791</v>
       </c>
       <c r="N41" t="n">
         <v>268.4084871644168</v>
       </c>
       <c r="O41" t="n">
-        <v>239.9805624047391</v>
+        <v>427.6195194100001</v>
       </c>
       <c r="P41" t="n">
         <v>169.9683620487816</v>
@@ -37801,13 +37801,13 @@
         <v>78.9798213958783</v>
       </c>
       <c r="R41" t="n">
-        <v>80.61802643067453</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>74.51388905283366</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>9.074737774819287</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>18.03250898273918</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>55.74942056208442</v>
       </c>
       <c r="K44" t="n">
-        <v>134.8049584074204</v>
+        <v>196.0960899415278</v>
       </c>
       <c r="L44" t="n">
         <v>204.5119781014416</v>
@@ -38035,16 +38035,16 @@
         <v>169.9683620487816</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.9798213958783</v>
+        <v>298.9373094482283</v>
       </c>
       <c r="R44" t="n">
-        <v>179.6274837760611</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>74.51388905283363</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>9.074737774819258</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
